--- a/UCM_model.xlsx
+++ b/UCM_model.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/935cc860ba0efd68/GitHub/equity_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1171" documentId="11_AD4D5CB4E552A5DACE1C6418181876DE5ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CCE9CCF-AF7C-442A-BD58-DA39BE261F1A}"/>
+  <xr:revisionPtr revIDLastSave="2119" documentId="11_AD4D5CB4E552A5DACE1C6418181876DE5ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51EF2F90-440D-4031-BC5F-A32C850A9E43}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57495" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assumptions" sheetId="2" r:id="rId1"/>
-    <sheet name="highlights" sheetId="9" r:id="rId2"/>
-    <sheet name="income_statement" sheetId="1" r:id="rId3"/>
-    <sheet name="balance_sheet" sheetId="7" r:id="rId4"/>
-    <sheet name="cash_flow_statement" sheetId="8" r:id="rId5"/>
-    <sheet name="forecast" sheetId="3" r:id="rId6"/>
-    <sheet name="dcf" sheetId="4" r:id="rId7"/>
+    <sheet name="dcf" sheetId="4" r:id="rId2"/>
+    <sheet name="highlights" sheetId="9" r:id="rId3"/>
+    <sheet name="income_statement" sheetId="1" r:id="rId4"/>
+    <sheet name="balance_sheet" sheetId="7" r:id="rId5"/>
+    <sheet name="cash_flow_statement" sheetId="8" r:id="rId6"/>
+    <sheet name="forecast" sheetId="3" r:id="rId7"/>
     <sheet name="multiples_comparables" sheetId="5" r:id="rId8"/>
     <sheet name="sensitivity_analysis" sheetId="6" r:id="rId9"/>
   </sheets>
@@ -43,8 +43,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="197">
   <si>
     <t>Other operating revenues</t>
   </si>
@@ -397,12 +434,6 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>g (expected from buzzi)</t>
-  </si>
-  <si>
-    <t>g (computed)</t>
-  </si>
-  <si>
     <t>EBIT</t>
   </si>
   <si>
@@ -490,9 +521,6 @@
     <t>Net income</t>
   </si>
   <si>
-    <t>Changes in working capital</t>
-  </si>
-  <si>
     <t>Enterprise value (EV)</t>
   </si>
   <si>
@@ -503,21 +531,166 @@
   </si>
   <si>
     <t>Price per share</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>Cash flow from operation</t>
+  </si>
+  <si>
+    <t>Changes in WC</t>
+  </si>
+  <si>
+    <t>Working Capital (WC)</t>
+  </si>
+  <si>
+    <t>Net borrowing</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Compounded Annual Growth Rate (CAGR)</t>
+  </si>
+  <si>
+    <t>(in EURe03)</t>
+  </si>
+  <si>
+    <t>OPEX</t>
+  </si>
+  <si>
+    <t>% of sales</t>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBIT </t>
+  </si>
+  <si>
+    <t>Net profit</t>
+  </si>
+  <si>
+    <t>19-23 CAGR</t>
+  </si>
+  <si>
+    <t>23-28E CAGR</t>
+  </si>
+  <si>
+    <t>Net profit margin</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>% sales</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>EBITDA to cash conversion</t>
+  </si>
+  <si>
+    <t>EBIT to cash conversion</t>
+  </si>
+  <si>
+    <t>g (expected from buzzi - based on inflation)</t>
+  </si>
+  <si>
+    <t>WACC (estimated by Buzzi)</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>PV_TV</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Equity Value</t>
+  </si>
+  <si>
+    <t>Price target (PT)</t>
+  </si>
+  <si>
+    <t>Outstanding Shares</t>
+  </si>
+  <si>
+    <t>Market Capitalization</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Expected Change</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>Rf</t>
+  </si>
+  <si>
+    <t>Rm</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>kd</t>
+  </si>
+  <si>
+    <t>E/(E+D)</t>
+  </si>
+  <si>
+    <t>D/(E+D)</t>
+  </si>
+  <si>
+    <t>BTP 10y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="6">
+  <numFmts count="10">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000\ &quot;€&quot;"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0\ &quot;€&quot;"/>
-    <numFmt numFmtId="174" formatCode="#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0\ &quot;€&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0\ &quot;€&quot;;[Red]\-#,##0.0\ &quot;€&quot;"/>
+    <numFmt numFmtId="176" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="185" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +715,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -597,7 +778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -634,12 +815,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -665,14 +910,11 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -681,7 +923,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -716,17 +957,108 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="10" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -805,8 +1137,20 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
-        <u/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -823,30 +1167,23 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <strike/>
+        <u/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="3" xr9:uid="{67E96F2F-D7BF-4118-9F56-73AA47E3F838}">
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="lastTotalCell" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="lastTotalCell" dxfId="10"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8181"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -862,8 +1199,469 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=afmuzr&amp;q=XFRA%3aUCM&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>it-IT</v>
+    <v>afmuzr</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Con tecnologia Refinitiv</v>
+    <v>0</v>
+    <v>1</v>
+    <v>Buzzi SpA (XFRA:UCM)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>51.2</v>
+    <v>192626100</v>
+    <v>0.96540000000000004</v>
+    <v>10072310000</v>
+    <v>54.35</v>
+    <v>Buzzi Unicem S.p.A., precedentemente nota come Buzzi Unicem S.p.A. - Senza Vincoli di Rappresentazione Grafica, è una società con sede in Italia impegnata nella produzione di materiali da costruzione. La Società è principalmente attiva nella produzione, distribuzione e vendita di cemento, aggregati naturali e preconfezionati. Le attività della Società si svolgono principalmente in Italia, Stati Uniti, Germania, Lussemburgo, Paesi Bassi, Polonia, Repubblica Ceca, Slovacchia, Ucraina, Russia e Messico. Al 31 dicembre 2011, la Società disponeva di una capacità produttiva complessiva di circa 44 milioni di tonnellate di cemento all'anno, e gestiva 39 cementifici, 558 impianti di calcestruzzo preconfezionati, 37 cave di aggregati e 41 terminali.</v>
+    <v>9843</v>
+    <v>Deutsche Boerse AG</v>
+    <v>XFRA</v>
+    <v>0</v>
+    <v>51.9</v>
+    <v>50.6</v>
+    <v>Buzzi SpA</v>
+    <v>Buzzi SpA</v>
+    <v>45737.878472222219</v>
+    <v>9.7872000000000003</v>
+    <v>50.6</v>
+    <v>Via Luigi Buzzi, 6, CASALE MONFERRATO, ALESSANDRIA, 15033 IT</v>
+    <v>Construction Materials</v>
+    <v>XFRA</v>
+    <v>UCM</v>
+    <v>Azionario</v>
+    <v>Buzzi SpA (XFRA:UCM)</v>
+    <v>EUR</v>
+    <v>-3.75</v>
+    <v>-6.8997000000000003E-2</v>
+    <v>105</v>
+    <v>822020</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_CanonicalPropertyNames" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Apri"/>
+    <k n="Azioni in circolazione"/>
+    <k n="Beta"/>
+    <k n="Capitalizzazione di mercato"/>
+    <k n="Chiusura precedente"/>
+    <k n="Descrizione" t="s"/>
+    <k n="Dipendenti"/>
+    <k n="Exchange" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Massimo"/>
+    <k n="Minimo"/>
+    <k n="Nome" t="s"/>
+    <k n="Nome ufficiale" t="s"/>
+    <k n="Orario ultima transazione"/>
+    <k n="P/U"/>
+    <k n="Prezzo"/>
+    <k n="Sede centrale" t="s"/>
+    <k n="Settore" t="s"/>
+    <k n="Simbolo azionario" t="s"/>
+    <k n="Simbolo dell'azione" t="s"/>
+    <k n="Tipo strumento" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Valuta" t="s"/>
+    <k n="Variazione"/>
+    <k n="Variazione (%)"/>
+    <k n="Volume"/>
+    <k n="Volume medio"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="40">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">_CanonicalPropertyNames</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Nome</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Prezzo</v>
+      <v t="s">Exchange</v>
+      <v t="s">Nome ufficiale</v>
+      <v t="s">Orario ultima transazione</v>
+      <v t="s">Simbolo dell'azione</v>
+      <v t="s">Simbolo azionario</v>
+      <v t="s">Variazione</v>
+      <v t="s">Variazione (%)</v>
+      <v t="s">Valuta</v>
+      <v t="s">Chiusura precedente</v>
+      <v t="s">Apri</v>
+      <v t="s">Massimo</v>
+      <v t="s">Minimo</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume medio</v>
+      <v t="s">Capitalizzazione di mercato</v>
+      <v t="s">Beta</v>
+      <v t="s">P/U</v>
+      <v t="s">Azioni in circolazione</v>
+      <v t="s">Descrizione</v>
+      <v t="s">Dipendenti</v>
+      <v t="s">Sede centrale</v>
+      <v t="s">Settore</v>
+      <v t="s">Tipo strumento</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="6">
+    <spb s="0">
+      <v>P/E</v>
+      <v>Open</v>
+      <v>Beta</v>
+      <v>Name</v>
+      <v>Low</v>
+      <v>Price</v>
+      <v>Currency</v>
+      <v>Volume</v>
+      <v>High</v>
+      <v>Industry</v>
+      <v>Exchange</v>
+      <v>Employees</v>
+      <v>ExchangeID</v>
+      <v>UniqueName</v>
+      <v>Change</v>
+      <v>Description</v>
+      <v>Volume average</v>
+      <v>%ProviderInfo</v>
+      <v>Headquarters</v>
+      <v>Official name</v>
+      <v>Instrument type</v>
+      <v>Change (%)</v>
+      <v>LearnMoreOnLink</v>
+      <v>Exchange abbreviation</v>
+      <v>Previous close</v>
+      <v>Ticker symbol</v>
+      <v>Shares outstanding</v>
+      <v>Last trade time</v>
+      <v>Market cap</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="2">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="3">
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+    </spb>
+    <spb s="4">
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>2</v>
+      <v>2</v>
+      <v>4</v>
+      <v>2</v>
+      <v>4</v>
+      <v>2</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>2</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+    </spb>
+    <spb s="5">
+      <v>Ritardato di 15 minuti</v>
+      <v xml:space="preserve">dalla chiusura precedente </v>
+      <v xml:space="preserve">dalla chiusura precedente </v>
+      <v>GMT</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
+  <s>
+    <k n="P/U" t="s"/>
+    <k n="Apri" t="s"/>
+    <k n="Beta" t="s"/>
+    <k n="Nome" t="s"/>
+    <k n="Minimo" t="s"/>
+    <k n="Prezzo" t="s"/>
+    <k n="Valuta" t="s"/>
+    <k n="Volume" t="s"/>
+    <k n="Massimo" t="s"/>
+    <k n="Settore" t="s"/>
+    <k n="Exchange" t="s"/>
+    <k n="Dipendenti" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Variazione" t="s"/>
+    <k n="Descrizione" t="s"/>
+    <k n="Volume medio" t="s"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="Sede centrale" t="s"/>
+    <k n="Nome ufficiale" t="s"/>
+    <k n="Tipo strumento" t="s"/>
+    <k n="Variazione (%)" t="s"/>
+    <k n="LearnMoreOnLink" t="s"/>
+    <k n="Simbolo azionario" t="s"/>
+    <k n="Chiusura precedente" t="s"/>
+    <k n="Simbolo dell'azione" t="s"/>
+    <k n="Azioni in circolazione" t="s"/>
+    <k n="Orario ultima transazione" t="s"/>
+    <k n="Capitalizzazione di mercato" t="s"/>
+  </s>
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="P/U" t="i"/>
+    <k n="Apri" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="Nome" t="i"/>
+    <k n="Minimo" t="i"/>
+    <k n="Prezzo" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Massimo" t="i"/>
+    <k n="Dipendenti" t="i"/>
+    <k n="Variazione" t="i"/>
+    <k n="Volume medio" t="i"/>
+    <k n="Variazione (%)" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Chiusura precedente" t="i"/>
+    <k n="Azioni in circolazione" t="i"/>
+    <k n="Orario ultima transazione" t="i"/>
+    <k n="Capitalizzazione di mercato" t="i"/>
+  </s>
+  <s>
+    <k n="Prezzo" t="s"/>
+    <k n="Variazione" t="s"/>
+    <k n="Variazione (%)" t="s"/>
+    <k n="Orario ultima transazione" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="6">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty dxfid="2">
+      <rpv i="0">_([$€-x-euro2] * #,##0.00_);_([$€-x-euro2] * (#,##0.00);_([$€-x-euro2] * "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="4"/>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="2">
+      <rpv i="0">_([$€-x-euro2] * #,##0_);_([$€-x-euro2] * (#,##0);_([$€-x-euro2] * "-"_);_(@_)</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F68A0CF-6F64-40CD-8BBD-91947DC4B1B7}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F68A0CF-6F64-40CD-8BBD-91947DC4B1B7}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
   <autoFilter ref="A1:F19" xr:uid="{7F68A0CF-6F64-40CD-8BBD-91947DC4B1B7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -873,12 +1671,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8A61A545-83B0-4348-9AB9-7BDEB543ECFC}" name="(thousands of euro)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{B64D4814-B95E-4268-B203-76CEA43ED831}" name="2019" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{DC75388F-3B36-4C54-850E-D083A3088F7D}" name="2020" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FFB7C7D8-2563-4878-B86E-54C2610F4C1D}" name="2021" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{6BB45C77-A449-43E3-8CA9-6CDE423FC41F}" name="2022" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{039EB9D4-DBC4-49DC-8CCD-3133FBBCDEF6}" name="2023" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8A61A545-83B0-4348-9AB9-7BDEB543ECFC}" name="(thousands of euro)" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{B64D4814-B95E-4268-B203-76CEA43ED831}" name="2019" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{DC75388F-3B36-4C54-850E-D083A3088F7D}" name="2020" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{FFB7C7D8-2563-4878-B86E-54C2610F4C1D}" name="2021" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{6BB45C77-A449-43E3-8CA9-6CDE423FC41F}" name="2022" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{039EB9D4-DBC4-49DC-8CCD-3133FBBCDEF6}" name="2023" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1147,32 +1945,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B04DC5-20A4-4624-A7FC-AA74A3379BBC}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="37.15625" customWidth="1"/>
+    <col min="2" max="2" width="23.734375" customWidth="1"/>
+    <col min="3" max="3" width="18.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.20703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5234375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="54">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="92"/>
+      <c r="B1" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="96" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="97" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" s="98" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">_FV(A2,"Azioni in circolazione",TRUE)</f>
+        <v>192626100</v>
+      </c>
+      <c r="C2" s="99" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">_FV(A2,"Capitalizzazione di mercato",TRUE)</f>
+        <v>10072310000</v>
+      </c>
+      <c r="D2" s="99" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">_FV(A2,"Prezzo")</f>
+        <v>50.6</v>
+      </c>
+      <c r="E2" s="100" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">_FV(A2,"P/U",TRUE)</f>
+        <v>9.7872000000000003</v>
+      </c>
+      <c r="F2" s="101" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">_FV(A2,"Beta")</f>
+        <v>0.96540000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="50">
         <v>0.02</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="54">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="50">
         <v>0.1</v>
       </c>
     </row>
@@ -1182,716 +2026,2340 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A1E1FA-E967-47B0-B93E-C43E58801B3E}">
-  <dimension ref="A1:K37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E97210-359B-40D0-B5CA-83EFA2834E49}">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.05078125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="7.05078125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.5234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="55">
-        <v>0.24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="62">
-        <v>2019</v>
-      </c>
-      <c r="C3" s="62">
-        <v>2020</v>
-      </c>
-      <c r="D3" s="62">
-        <v>2021</v>
-      </c>
-      <c r="E3" s="62">
-        <v>2022</v>
-      </c>
-      <c r="F3" s="62">
+    <row r="1" spans="1:9" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="57">
         <v>2023</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="C1" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="F1" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="G1" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="11">
-        <f>income_statement!B2</f>
-        <v>3221443</v>
-      </c>
-      <c r="C4" s="11">
-        <f>income_statement!C2</f>
-        <v>3222411</v>
-      </c>
-      <c r="D4" s="11">
-        <f>income_statement!D2</f>
-        <v>3445551</v>
-      </c>
-      <c r="E4" s="11">
-        <f>income_statement!E2</f>
-        <v>3995519</v>
-      </c>
-      <c r="F4" s="11">
-        <f>income_statement!F2</f>
+      <c r="H1" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="14">
+        <f>Table1[[#This Row],[2023]]</f>
         <v>4317489</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="11">
-        <f>income_statement!B9</f>
-        <v>728104</v>
-      </c>
-      <c r="C5" s="11">
-        <f>income_statement!C9</f>
-        <v>780801</v>
-      </c>
-      <c r="D5" s="11">
-        <f>income_statement!D9</f>
-        <v>794644</v>
-      </c>
-      <c r="E5" s="11">
-        <f>income_statement!E9</f>
-        <v>883676</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="C2" s="14">
+        <f>B2*(1+highlights!$B$2)</f>
+        <v>4645435.5256781038</v>
+      </c>
+      <c r="D2" s="14">
+        <f>C2*(1+highlights!$B$2)</f>
+        <v>4998292.1145212408</v>
+      </c>
+      <c r="E2" s="14">
+        <f>D2*(1+highlights!$B$2)</f>
+        <v>5377950.8775850264</v>
+      </c>
+      <c r="F2" s="14">
+        <f>E2*(1+highlights!$B$2)</f>
+        <v>5786447.6463252632</v>
+      </c>
+      <c r="G2" s="14">
+        <f>F2*(1+highlights!$B$2)</f>
+        <v>6225972.8892686982</v>
+      </c>
+      <c r="H2" s="66">
+        <f>highlights!B2</f>
+        <v>7.5957698022647735E-2</v>
+      </c>
+      <c r="I2" s="62">
+        <f>(G2/B2)^(1/5)-1</f>
+        <v>7.5957698022647735E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="14">
+        <f>ABS(income_statement!F5)</f>
+        <v>1620437</v>
+      </c>
+      <c r="C3" s="70">
+        <f>B3*(1+$H$3)</f>
+        <v>1745271.5472367122</v>
+      </c>
+      <c r="D3" s="70">
+        <f t="shared" ref="D3:G3" si="0">C3*(1+$H$3)</f>
+        <v>1879723.046063517</v>
+      </c>
+      <c r="E3" s="70">
+        <f t="shared" si="0"/>
+        <v>2024532.3631710333</v>
+      </c>
+      <c r="F3" s="70">
+        <f t="shared" si="0"/>
+        <v>2180497.4398278403</v>
+      </c>
+      <c r="G3" s="70">
+        <f t="shared" si="0"/>
+        <v>2348477.6887679216</v>
+      </c>
+      <c r="H3" s="66">
+        <f>(highlights!F7/highlights!B7)^(1/4)-1</f>
+        <v>7.7037581366453667E-2</v>
+      </c>
+      <c r="I3" s="62">
+        <f>(G3/B3)^(1/5)-1</f>
+        <v>7.7037581366453667E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="72">
+        <f>B3/B2</f>
+        <v>0.37531931175736638</v>
+      </c>
+      <c r="C4" s="72">
+        <f t="shared" ref="C4:G4" si="1">C3/C2</f>
+        <v>0.37569600042655876</v>
+      </c>
+      <c r="D4" s="72">
+        <f t="shared" si="1"/>
+        <v>0.37607306715877398</v>
+      </c>
+      <c r="E4" s="72">
+        <f t="shared" si="1"/>
+        <v>0.37645051233345428</v>
+      </c>
+      <c r="F4" s="72">
+        <f t="shared" si="1"/>
+        <v>0.3768283363304229</v>
+      </c>
+      <c r="G4" s="72">
+        <f t="shared" si="1"/>
+        <v>0.37720653952988437</v>
+      </c>
+      <c r="H4" s="80"/>
+      <c r="I4" s="62"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="14">
+        <f>ABS(SUM(income_statement!F6:F8))</f>
+        <v>1561676</v>
+      </c>
+      <c r="C5" s="70">
+        <f>B5*(1+$H$5)</f>
+        <v>1618549.9641978096</v>
+      </c>
+      <c r="D5" s="70">
+        <f t="shared" ref="D5:G5" si="2">C5*(1+$H$5)</f>
+        <v>1677495.1952932174</v>
+      </c>
+      <c r="E5" s="70">
+        <f t="shared" si="2"/>
+        <v>1738587.1258083202</v>
+      </c>
+      <c r="F5" s="70">
+        <f t="shared" si="2"/>
+        <v>1801903.9354077473</v>
+      </c>
+      <c r="G5" s="70">
+        <f t="shared" si="2"/>
+        <v>1867526.6509455875</v>
+      </c>
+      <c r="H5" s="66">
+        <f>(highlights!F8/highlights!B8)^(1/4)-1</f>
+        <v>3.6418542769312889E-2</v>
+      </c>
+      <c r="I5" s="62">
+        <f t="shared" ref="I5:I14" si="3">(G5/B5)^(1/5)-1</f>
+        <v>3.6418542769312889E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="72">
+        <f>B5/B2</f>
+        <v>0.36170931761493774</v>
+      </c>
+      <c r="C6" s="72">
+        <f t="shared" ref="C6:G6" si="4">C5/C2</f>
+        <v>0.34841727008180712</v>
+      </c>
+      <c r="D6" s="72">
+        <f t="shared" si="4"/>
+        <v>0.33561367700372902</v>
+      </c>
+      <c r="E6" s="72">
+        <f t="shared" si="4"/>
+        <v>0.32328058871914322</v>
+      </c>
+      <c r="F6" s="72">
+        <f t="shared" si="4"/>
+        <v>0.31140071517834661</v>
+      </c>
+      <c r="G6" s="72">
+        <f t="shared" si="4"/>
+        <v>0.29995740170416113</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="62"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="14">
         <f>income_statement!F9</f>
         <v>1243215</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="11">
-        <f>income_statement!B12</f>
-        <v>468238</v>
-      </c>
-      <c r="C6" s="11">
-        <f>income_statement!C12</f>
-        <v>523890</v>
-      </c>
-      <c r="D6" s="11">
-        <f>income_statement!D12</f>
-        <v>545596</v>
-      </c>
-      <c r="E6" s="11">
-        <f>income_statement!E12</f>
-        <v>494776</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="C7" s="70">
+        <f>C2-C3-C5</f>
+        <v>1281614.014243582</v>
+      </c>
+      <c r="D7" s="70">
+        <f t="shared" ref="D7:F7" si="5">D2-D3-D5</f>
+        <v>1441073.8731645062</v>
+      </c>
+      <c r="E7" s="70">
+        <f t="shared" si="5"/>
+        <v>1614831.3886056726</v>
+      </c>
+      <c r="F7" s="70">
+        <f t="shared" si="5"/>
+        <v>1804046.2710896756</v>
+      </c>
+      <c r="G7" s="70">
+        <f>G2-G3-G5</f>
+        <v>2009968.549555189</v>
+      </c>
+      <c r="H7" s="66">
+        <f>(highlights!F9/highlights!B9)^(1/4)-1</f>
+        <v>0.1431104793723732</v>
+      </c>
+      <c r="I7" s="62">
+        <f t="shared" si="3"/>
+        <v>0.10085115927940347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="72">
+        <f>ABS(B7)/$B$2</f>
+        <v>0.28794862013545375</v>
+      </c>
+      <c r="C8" s="72">
+        <f t="shared" ref="C8:G8" si="6">ABS(C7)/$B$2</f>
+        <v>0.29684245037881557</v>
+      </c>
+      <c r="D8" s="72">
+        <f t="shared" si="6"/>
+        <v>0.33377592233923609</v>
+      </c>
+      <c r="E8" s="72">
+        <f t="shared" si="6"/>
+        <v>0.37402096186132094</v>
+      </c>
+      <c r="F8" s="72">
+        <f t="shared" si="6"/>
+        <v>0.4178461765831194</v>
+      </c>
+      <c r="G8" s="72">
+        <f t="shared" si="6"/>
+        <v>0.46554109334272514</v>
+      </c>
+      <c r="H8" s="66"/>
+      <c r="I8" s="62"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="73" cm="1">
+        <f t="array" ref="B9">SUM(ABS(income_statement!F10:F11))</f>
+        <v>258425</v>
+      </c>
+      <c r="C9" s="73">
+        <f>B9*(1+$H$9)</f>
+        <v>258066.00026372526</v>
+      </c>
+      <c r="D9" s="73">
+        <f t="shared" ref="D9:G9" si="7">C9*(1+$H$9)</f>
+        <v>257707.49924394715</v>
+      </c>
+      <c r="E9" s="73">
+        <f t="shared" si="7"/>
+        <v>257349.49624785699</v>
+      </c>
+      <c r="F9" s="73">
+        <f t="shared" si="7"/>
+        <v>256991.99058360848</v>
+      </c>
+      <c r="G9" s="73">
+        <f t="shared" si="7"/>
+        <v>256634.98156031646</v>
+      </c>
+      <c r="H9" s="66">
+        <f>(SUM(income_statement!F10:F11)/SUM(income_statement!B10:B11))^(1/4)-1</f>
+        <v>-1.3891834624155663E-3</v>
+      </c>
+      <c r="I9" s="62"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="14">
         <f>income_statement!F12</f>
         <v>984790</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="11">
-        <f>B6*(1-$B$1)</f>
-        <v>355860.88</v>
-      </c>
-      <c r="C7" s="11">
-        <f>C6*(1-$B$1)</f>
-        <v>398156.4</v>
-      </c>
-      <c r="D7" s="11">
-        <f>D6*(1-$B$1)</f>
-        <v>414652.96</v>
-      </c>
-      <c r="E7" s="11">
-        <f>E6*(1-$B$1)</f>
-        <v>376029.76</v>
-      </c>
-      <c r="F7" s="11">
-        <f>F6*(1-$B$1)</f>
-        <v>748440.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="11">
-        <f>income_statement!B19</f>
-        <v>385910</v>
-      </c>
-      <c r="C8" s="11">
-        <f>income_statement!C19</f>
-        <v>560472</v>
-      </c>
-      <c r="D8" s="11">
-        <f>income_statement!D19</f>
-        <v>542300</v>
-      </c>
-      <c r="E8" s="11">
-        <f>income_statement!E19</f>
-        <v>458779</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="C10" s="70">
+        <f>C7-C9</f>
+        <v>1023548.0139798567</v>
+      </c>
+      <c r="D10" s="70">
+        <f t="shared" ref="D10:G10" si="8">D7-D9</f>
+        <v>1183366.373920559</v>
+      </c>
+      <c r="E10" s="70">
+        <f t="shared" si="8"/>
+        <v>1357481.8923578155</v>
+      </c>
+      <c r="F10" s="70">
+        <f t="shared" si="8"/>
+        <v>1547054.2805060672</v>
+      </c>
+      <c r="G10" s="70">
+        <f t="shared" si="8"/>
+        <v>1753333.5679948726</v>
+      </c>
+      <c r="H10" s="66">
+        <f>(highlights!F10/highlights!B10)^(1/4)-1</f>
+        <v>0.20425717756209383</v>
+      </c>
+      <c r="I10" s="62">
+        <f t="shared" si="3"/>
+        <v>0.12228764920764212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="72">
+        <f>ABS(B10)/$B$2</f>
+        <v>0.2280932273365375</v>
+      </c>
+      <c r="C11" s="72">
+        <f>ABS(C10)/$B$2</f>
+        <v>0.23707020770171197</v>
+      </c>
+      <c r="D11" s="72">
+        <f t="shared" ref="D11:G11" si="9">ABS(D10)/$B$2</f>
+        <v>0.27408671427317105</v>
+      </c>
+      <c r="E11" s="72">
+        <f t="shared" si="9"/>
+        <v>0.31441467305598592</v>
+      </c>
+      <c r="F11" s="72">
+        <f t="shared" si="9"/>
+        <v>0.35832269184844878</v>
+      </c>
+      <c r="G11" s="72">
+        <f t="shared" si="9"/>
+        <v>0.40610029764867323</v>
+      </c>
+      <c r="H11" s="66"/>
+      <c r="I11" s="62"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="14">
+        <f>SUM(income_statement!F13:F16)</f>
+        <v>156079</v>
+      </c>
+      <c r="C12" s="70">
+        <f>B12*(1+$H$12)</f>
+        <v>162719.02739330876</v>
+      </c>
+      <c r="D12" s="70">
+        <f t="shared" ref="D12:G12" si="10">C12*(1+$H$12)</f>
+        <v>169641.53970633054</v>
+      </c>
+      <c r="E12" s="70">
+        <f t="shared" si="10"/>
+        <v>176858.55461988784</v>
+      </c>
+      <c r="F12" s="70">
+        <f t="shared" si="10"/>
+        <v>184382.60107980267</v>
+      </c>
+      <c r="G12" s="70">
+        <f t="shared" si="10"/>
+        <v>192226.74104750756</v>
+      </c>
+      <c r="H12" s="66">
+        <f>(ABS(highlights!F15)/ABS(highlights!B15))^(1/4)-1</f>
+        <v>4.2542734085359024E-2</v>
+      </c>
+      <c r="I12" s="62"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="72">
+        <f>B12/B2</f>
+        <v>3.615041057429446E-2</v>
+      </c>
+      <c r="C13" s="72">
+        <f>C12/C2</f>
+        <v>3.5027722695506858E-2</v>
+      </c>
+      <c r="D13" s="72">
+        <f>D12/D2</f>
+        <v>3.3939901034091439E-2</v>
+      </c>
+      <c r="E13" s="72">
+        <f>E12/E2</f>
+        <v>3.288586278409935E-2</v>
+      </c>
+      <c r="F13" s="72">
+        <f>F12/F2</f>
+        <v>3.186455876722509E-2</v>
+      </c>
+      <c r="G13" s="72">
+        <f>G12/G2</f>
+        <v>3.0874972388465777E-2</v>
+      </c>
+      <c r="H13" s="66"/>
+      <c r="I13" s="62"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="14">
         <f>income_statement!F19</f>
         <v>966813</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="11">
-        <f>SUM(balance_sheet!B30,balance_sheet!B40,balance_sheet!B41)</f>
-        <v>1275779</v>
-      </c>
-      <c r="C13" s="11">
-        <f>SUM(balance_sheet!C30,balance_sheet!C40,balance_sheet!C41)</f>
-        <v>1232168</v>
-      </c>
-      <c r="D13" s="11">
-        <f>SUM(balance_sheet!D30,balance_sheet!D40,balance_sheet!D41)</f>
-        <v>1137062</v>
-      </c>
-      <c r="E13" s="11">
-        <f>SUM(balance_sheet!E30,balance_sheet!E40,balance_sheet!E41)</f>
-        <v>1214722</v>
-      </c>
-      <c r="F13" s="11">
-        <f>SUM(balance_sheet!F30,balance_sheet!F40,balance_sheet!F41)</f>
-        <v>608888</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="12">
-        <f>balance_sheet!B22</f>
-        <v>837403</v>
-      </c>
-      <c r="C14" s="12">
-        <f>balance_sheet!C22</f>
-        <v>1218279</v>
-      </c>
-      <c r="D14" s="12">
-        <f>balance_sheet!D22</f>
-        <v>1203611</v>
-      </c>
-      <c r="E14" s="12">
-        <f>balance_sheet!E22</f>
-        <v>1341488</v>
-      </c>
-      <c r="F14" s="12">
-        <f>balance_sheet!F22</f>
-        <v>1120712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="14">
-        <f>B13-B14</f>
-        <v>438376</v>
-      </c>
-      <c r="C15" s="14">
-        <f t="shared" ref="C15:F15" si="0">C13-C14</f>
-        <v>13889</v>
-      </c>
-      <c r="D15" s="14">
-        <f t="shared" si="0"/>
-        <v>-66549</v>
-      </c>
-      <c r="E15" s="14">
-        <f t="shared" si="0"/>
-        <v>-126766</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="0"/>
+      <c r="C14" s="70">
+        <f>(C10+C12)*(1-highlights!$B$1)</f>
+        <v>949013.63309853245</v>
+      </c>
+      <c r="D14" s="70">
+        <f>(D10+D12)*(1-highlights!$B$1)</f>
+        <v>1082406.3309015117</v>
+      </c>
+      <c r="E14" s="70">
+        <f>(E10+E12)*(1-highlights!$B$1)</f>
+        <v>1227472.3575821628</v>
+      </c>
+      <c r="F14" s="70">
+        <f>(F10+F12)*(1-highlights!$B$1)</f>
+        <v>1385149.505268696</v>
+      </c>
+      <c r="G14" s="70">
+        <f>(G10+G12)*(1-highlights!$B$1)</f>
+        <v>1556448.2472339042</v>
+      </c>
+      <c r="H14" s="66">
+        <f>(highlights!F12/highlights!B12)^(1/4)-1</f>
+        <v>0.25809695791895071</v>
+      </c>
+      <c r="I14" s="62">
+        <f t="shared" si="3"/>
+        <v>9.9913267473285883E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="102" customFormat="1" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="85">
+        <f>ABS(B14)/$B$2</f>
+        <v>0.22392946455682922</v>
+      </c>
+      <c r="C15" s="85">
+        <f t="shared" ref="C15" si="11">ABS(C14)/$B$2</f>
+        <v>0.21980684446411616</v>
+      </c>
+      <c r="D15" s="85">
+        <f t="shared" ref="D15" si="12">ABS(D14)/$B$2</f>
+        <v>0.25070274201081039</v>
+      </c>
+      <c r="E15" s="85">
+        <f t="shared" ref="E15" si="13">ABS(E14)/$B$2</f>
+        <v>0.28430237056357593</v>
+      </c>
+      <c r="F15" s="85">
+        <f t="shared" ref="F15" si="14">ABS(F14)/$B$2</f>
+        <v>0.32082293788558486</v>
+      </c>
+      <c r="G15" s="85">
+        <f t="shared" ref="G15" si="15">ABS(G14)/$B$2</f>
+        <v>0.36049848586386768</v>
+      </c>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
+    </row>
+    <row r="16" spans="1:9" s="102" customFormat="1" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="57">
+        <v>0</v>
+      </c>
+      <c r="C16" s="57">
+        <v>1</v>
+      </c>
+      <c r="D16" s="57">
+        <v>2</v>
+      </c>
+      <c r="E16" s="57">
+        <v>3</v>
+      </c>
+      <c r="F16" s="57">
+        <v>4</v>
+      </c>
+      <c r="G16" s="57">
+        <v>5</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="103" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="102" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="14">
+        <f>B10*(1-highlights!$B$1)</f>
+        <v>787832</v>
+      </c>
+      <c r="C17" s="14">
+        <f>C10*(1-highlights!$B$1)</f>
+        <v>818838.41118388542</v>
+      </c>
+      <c r="D17" s="14">
+        <f>D10*(1-highlights!$B$1)</f>
+        <v>946693.09913644718</v>
+      </c>
+      <c r="E17" s="14">
+        <f>E10*(1-highlights!$B$1)</f>
+        <v>1085985.5138862524</v>
+      </c>
+      <c r="F17" s="14">
+        <f>F10*(1-highlights!$B$1)</f>
+        <v>1237643.4244048537</v>
+      </c>
+      <c r="G17" s="14">
+        <f>G10*(1-highlights!$B$1)</f>
+        <v>1402666.8543958981</v>
+      </c>
+      <c r="H17" s="68"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="72">
+        <f>B17/B2</f>
+        <v>0.18247458186923002</v>
+      </c>
+      <c r="C18" s="72">
+        <f>C17/C2</f>
+        <v>0.17626730726487866</v>
+      </c>
+      <c r="D18" s="72">
+        <f>D17/D2</f>
+        <v>0.18940331566177895</v>
+      </c>
+      <c r="E18" s="72">
+        <f>E17/E2</f>
+        <v>0.20193295524742969</v>
+      </c>
+      <c r="F18" s="72">
+        <f>F17/F2</f>
+        <v>0.21388656738142797</v>
+      </c>
+      <c r="G18" s="72">
+        <f>G17/G2</f>
+        <v>0.22529279830523885</v>
+      </c>
+      <c r="H18" s="68"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="76">
+        <f>ABS(highlights!F15)</f>
+        <v>303704</v>
+      </c>
+      <c r="C19" s="77">
+        <f>B19*(1+$H$19)</f>
+        <v>316624.39851265989</v>
+      </c>
+      <c r="D19" s="77">
+        <f t="shared" ref="D19:G19" si="16">C19*(1+$H$19)</f>
+        <v>330094.46610352071</v>
+      </c>
+      <c r="E19" s="77">
+        <f t="shared" si="16"/>
+        <v>344137.58719801134</v>
+      </c>
+      <c r="F19" s="77">
+        <f t="shared" si="16"/>
+        <v>358778.14105895342</v>
+      </c>
+      <c r="G19" s="77">
+        <f t="shared" si="16"/>
+        <v>374041.54410966393</v>
+      </c>
+      <c r="H19" s="62">
+        <f>highlights!G15</f>
+        <v>4.2542734085359024E-2</v>
+      </c>
+      <c r="I19" s="62">
+        <f>(G19/B19)^(1/5)-1</f>
+        <v>4.2542734085359024E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="72">
+        <f>B19/B2</f>
+        <v>7.0342738568644883E-2</v>
+      </c>
+      <c r="C20" s="72">
+        <f>C19/C2</f>
+        <v>6.8158173063104038E-2</v>
+      </c>
+      <c r="D20" s="72">
+        <f>D19/D2</f>
+        <v>6.6041451467895779E-2</v>
+      </c>
+      <c r="E20" s="72">
+        <f>E19/E2</f>
+        <v>6.3990466821174583E-2</v>
+      </c>
+      <c r="F20" s="72">
+        <f>F19/F2</f>
+        <v>6.200317759494442E-2</v>
+      </c>
+      <c r="G20" s="72">
+        <f>G19/G2</f>
+        <v>6.0077605662943831E-2</v>
+      </c>
+      <c r="H20" s="68"/>
+    </row>
+    <row r="21" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="14">
+        <f>highlights!F35</f>
+        <v>1014099</v>
+      </c>
+      <c r="C21" s="70">
+        <f>B21*(1+$H$21)</f>
+        <v>1198499.406907514</v>
+      </c>
+      <c r="D21" s="70">
+        <f t="shared" ref="D21:F21" si="17">C21*(1+$H$21)</f>
+        <v>1416430.5736990795</v>
+      </c>
+      <c r="E21" s="70">
+        <f t="shared" si="17"/>
+        <v>1673989.6228119903</v>
+      </c>
+      <c r="F21" s="70">
+        <f t="shared" si="17"/>
+        <v>1978382.3572545713</v>
+      </c>
+      <c r="G21" s="70">
+        <f>F21*(1+$H$21)</f>
+        <v>2338124.8594130292</v>
+      </c>
+      <c r="H21" s="66">
+        <f>highlights!G35</f>
+        <v>0.18183669139552849</v>
+      </c>
+      <c r="I21" s="66">
+        <f>(G21/B21)^(1/5)-1</f>
+        <v>0.18183669139552849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="78">
+        <f>B21/B2</f>
+        <v>0.2348816638560052</v>
+      </c>
+      <c r="C22" s="78">
+        <f>C21/C2</f>
+        <v>0.25799505779010173</v>
+      </c>
+      <c r="D22" s="78">
+        <f>D21/D2</f>
+        <v>0.28338291185183195</v>
+      </c>
+      <c r="E22" s="78">
+        <f>E21/E2</f>
+        <v>0.31126904297119518</v>
+      </c>
+      <c r="F22" s="78">
+        <f>F21/F2</f>
+        <v>0.34189929265340563</v>
+      </c>
+      <c r="G22" s="78">
+        <f>G21/G2</f>
+        <v>0.37554369429444545</v>
+      </c>
+      <c r="H22" s="66"/>
+    </row>
+    <row r="23" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="14">
+        <f>highlights!F37</f>
+        <v>214468</v>
+      </c>
+      <c r="C23" s="14">
+        <f>C21-B21</f>
+        <v>184400.40690751397</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" ref="D23:G23" si="18">D21-C21</f>
+        <v>217931.16679156548</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="18"/>
+        <v>257559.04911291087</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="18"/>
+        <v>304392.73444258096</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="18"/>
+        <v>359742.50215845788</v>
+      </c>
+      <c r="H23" s="81">
+        <f>AVERAGE(highlights!D37:F37)</f>
+        <v>226619.66666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="14">
+        <f>B17+B9-B19-B23</f>
+        <v>528085</v>
+      </c>
+      <c r="C25" s="14">
+        <f t="shared" ref="C25:G25" si="19">C17+C9-C19-C23</f>
+        <v>575879.60602743691</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="19"/>
+        <v>656374.96548530809</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="19"/>
+        <v>741638.37382318708</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="19"/>
+        <v>831464.53948692768</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" si="19"/>
+        <v>925517.78968809266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="78">
+        <f>B25/B2</f>
+        <v>0.12231299257508242</v>
+      </c>
+      <c r="C26" s="78">
+        <f>C25/C2</f>
+        <v>0.12396676325485641</v>
+      </c>
+      <c r="D26" s="78">
+        <f>D25/D2</f>
+        <v>0.13131984894968041</v>
+      </c>
+      <c r="E26" s="78">
+        <f>E25/E2</f>
+        <v>0.13790352323861693</v>
+      </c>
+      <c r="F26" s="78">
+        <f>F25/F2</f>
+        <v>0.14369170695166608</v>
+      </c>
+      <c r="G26" s="78">
+        <f>G25/G2</f>
+        <v>0.14865432377377472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="11">
+        <f>C25/(1+assumptions!$B$5)^C16</f>
+        <v>523526.91457039717</v>
+      </c>
+      <c r="D27" s="11">
+        <f>D25/(1+assumptions!$B$5)^D16</f>
+        <v>542458.64916141157</v>
+      </c>
+      <c r="E27" s="11">
+        <f>E25/(1+assumptions!$B$5)^E16</f>
+        <v>557203.88716993749</v>
+      </c>
+      <c r="F27" s="11">
+        <f>F25/(1+assumptions!$B$5)^F16</f>
+        <v>567901.46812849364</v>
+      </c>
+      <c r="G27" s="11">
+        <f>G25/(1+assumptions!$B$5)^G16</f>
+        <v>574673.73048791522</v>
+      </c>
+      <c r="H27" s="56"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="62">
+        <f>B25/B7</f>
+        <v>0.42477367148884143</v>
+      </c>
+      <c r="C28" s="62">
+        <f>C25/C7</f>
+        <v>0.44933934837418682</v>
+      </c>
+      <c r="D28" s="62">
+        <f>D25/D7</f>
+        <v>0.45547627898072329</v>
+      </c>
+      <c r="E28" s="62">
+        <f>E25/E7</f>
+        <v>0.45926675630423264</v>
+      </c>
+      <c r="F28" s="62">
+        <f>F25/F7</f>
+        <v>0.46088869937061455</v>
+      </c>
+      <c r="G28" s="62">
+        <f>G25/G7</f>
+        <v>0.46046381665668951</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="62">
+        <f>B25/B10</f>
+        <v>0.53624122909452776</v>
+      </c>
+      <c r="C29" s="62">
+        <f>C25/C10</f>
+        <v>0.56263076881781737</v>
+      </c>
+      <c r="D29" s="62">
+        <f>D25/D10</f>
+        <v>0.55466758220507917</v>
+      </c>
+      <c r="E29" s="62">
+        <f>E25/E10</f>
+        <v>0.54633389807876742</v>
+      </c>
+      <c r="F29" s="62">
+        <f>F25/F10</f>
+        <v>0.5374501398974455</v>
+      </c>
+      <c r="G29" s="62">
+        <f>G25/G10</f>
+        <v>0.52786178658891636</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="82">
+        <f>highlights!F24</f>
+        <v>5120204</v>
+      </c>
+      <c r="C30" s="82">
+        <f>B30*(1+$H$30)</f>
+        <v>5403095.9493718129</v>
+      </c>
+      <c r="D30" s="82">
+        <f>C30*(1+$H$30)</f>
+        <v>5701617.7164265513</v>
+      </c>
+      <c r="E30" s="82">
+        <f>D30*(1+$H$30)</f>
+        <v>6016632.8506619781</v>
+      </c>
+      <c r="F30" s="82">
+        <f>E30*(1+$H$30)</f>
+        <v>6349052.6128000207</v>
+      </c>
+      <c r="G30" s="82">
+        <f>F30*(1+$H$30)</f>
+        <v>6699838.6108382242</v>
+      </c>
+      <c r="H30" s="62">
+        <f>(highlights!F24/highlights!B24)^(1/4)-1</f>
+        <v>5.5250132489215842E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="89">
+        <f>B17/highlights!F24</f>
+        <v>0.15386730684949271</v>
+      </c>
+      <c r="C31" s="89">
+        <f>B17/C30</f>
+        <v>0.14581121775037081</v>
+      </c>
+      <c r="D31" s="89">
+        <f>C17/D30</f>
+        <v>0.14361510222349433</v>
+      </c>
+      <c r="E31" s="89">
+        <f>D17/E30</f>
+        <v>0.15734599777553113</v>
+      </c>
+      <c r="F31" s="89">
+        <f>E17/F30</f>
+        <v>0.17104686007749392</v>
+      </c>
+      <c r="G31" s="89">
+        <f>F17/G30</f>
+        <v>0.18472734886520062</v>
+      </c>
+      <c r="H31" s="90">
+        <f>AVERAGE(highlights!B42:F42)</f>
+        <v>0.10889795982966539</v>
+      </c>
+      <c r="I31" s="91">
+        <f>AVERAGE(B31:G31)</f>
+        <v>0.15940230559026392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="83">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="50">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="62">
+        <f ca="1">B33+assumptions!F2*(dcf!B34-dcf!B33)</f>
+        <v>0.11716972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="62">
+        <f>ABS(income_statement!F16)/highlights!F20</f>
+        <v>0.16996393425391862</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="56">
+        <f>highlights!F26</f>
+        <v>966545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="11">
+        <f>highlights!F22</f>
         <v>-511824</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="12">
-        <f>balance_sheet!B61</f>
-        <v>3690821</v>
-      </c>
-      <c r="C16" s="12">
-        <f>balance_sheet!C61</f>
-        <v>3603007</v>
-      </c>
-      <c r="D16" s="12">
-        <f>balance_sheet!D61</f>
-        <v>4375204</v>
-      </c>
-      <c r="E16" s="12">
-        <f>balance_sheet!E61</f>
-        <v>4911457</v>
-      </c>
-      <c r="F16" s="12">
-        <f>balance_sheet!F61</f>
-        <v>5632028</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="11">
-        <f>SUM(B15:B16)</f>
-        <v>4129197</v>
-      </c>
-      <c r="C17" s="11">
-        <f t="shared" ref="C17:F17" si="1">SUM(C15:C16)</f>
-        <v>3616896</v>
-      </c>
-      <c r="D17" s="11">
-        <f t="shared" si="1"/>
-        <v>4308655</v>
-      </c>
-      <c r="E17" s="11">
-        <f t="shared" si="1"/>
-        <v>4784691</v>
-      </c>
-      <c r="F17" s="11">
-        <f t="shared" si="1"/>
-        <v>5120204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="61">
-        <v>385671</v>
-      </c>
-      <c r="C19" s="61">
-        <v>560246</v>
-      </c>
-      <c r="D19" s="61">
-        <v>541903</v>
-      </c>
-      <c r="E19" s="61">
-        <v>458786</v>
-      </c>
-      <c r="F19" s="61">
-        <v>966545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="60">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="C20" s="60">
-        <v>17.489999999999998</v>
-      </c>
-      <c r="D20" s="60">
-        <v>22.71</v>
-      </c>
-      <c r="E20" s="60">
-        <v>25.5</v>
-      </c>
-      <c r="F20" s="60">
-        <v>29.24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="59">
-        <v>191409874</v>
-      </c>
-      <c r="C21" s="59">
-        <v>192288607</v>
-      </c>
-      <c r="D21" s="59">
-        <v>192131838</v>
-      </c>
-      <c r="E21" s="59">
-        <v>186377503</v>
-      </c>
-      <c r="F21" s="59">
-        <v>185131838</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="58">
-        <v>1.8779999999999999</v>
-      </c>
-      <c r="C22" s="58">
-        <v>2.7490000000000001</v>
-      </c>
-      <c r="D22" s="58">
-        <f>D19/D21 *1000</f>
-        <v>2.8204747617102379</v>
-      </c>
-      <c r="E22" s="58">
-        <f>E19/E21 *1000</f>
-        <v>2.4615953782791045</v>
-      </c>
-      <c r="F22" s="58">
-        <f>F19/F21 *1000</f>
-        <v>5.2208469944537574</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="58">
-        <v>26559</v>
-      </c>
-      <c r="C24" s="58">
-        <v>31802</v>
-      </c>
-      <c r="D24" s="58">
-        <v>48033</v>
-      </c>
-      <c r="E24" s="58">
-        <v>74053</v>
-      </c>
-      <c r="F24" s="58">
-        <v>83309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="15">
-        <f>B24/B21*1000</f>
-        <v>0.13875459737254725</v>
-      </c>
-      <c r="C25" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="D25" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0.45</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="61">
-        <f>SUM(B19,B15)</f>
-        <v>824047</v>
-      </c>
-      <c r="C28" s="61">
-        <f>SUM(C19,C15)</f>
-        <v>574135</v>
-      </c>
-      <c r="D28" s="61">
-        <f>SUM(D19,D15)</f>
-        <v>475354</v>
-      </c>
-      <c r="E28" s="61">
-        <f>SUM(E19,E15)</f>
-        <v>332020</v>
-      </c>
-      <c r="F28" s="61">
-        <f>SUM(F19,F15)</f>
-        <v>454721</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="62">
-        <v>2019</v>
-      </c>
-      <c r="C30" s="62">
-        <v>2020</v>
-      </c>
-      <c r="D30" s="62">
-        <v>2021</v>
-      </c>
-      <c r="E30" s="62">
-        <v>2022</v>
-      </c>
-      <c r="F30" s="62">
-        <v>2023</v>
-      </c>
-      <c r="G30" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="J30" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="K30" s="62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="56">
-        <f>B6/B4</f>
-        <v>0.14535039111354756</v>
-      </c>
-      <c r="C31" s="56">
-        <f>C6/C4</f>
-        <v>0.16257702695280024</v>
-      </c>
-      <c r="D31" s="56">
-        <f>D6/D4</f>
-        <v>0.15834796814791016</v>
-      </c>
-      <c r="E31" s="56">
-        <f>E6/E4</f>
-        <v>0.12383272360862256</v>
-      </c>
-      <c r="F31" s="56">
-        <f>F6/F4</f>
-        <v>0.2280932273365375</v>
-      </c>
-      <c r="G31" s="56" t="e">
-        <f>G6/G4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="56" t="e">
-        <f>H6/H4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="56" t="e">
-        <f>I6/I4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="56" t="e">
-        <f>J6/J4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="56" t="e">
-        <f>K6/K4</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="56">
-        <f>B7/B17</f>
-        <v>8.618161836308609E-2</v>
-      </c>
-      <c r="C32" s="56">
-        <f>C7/C17</f>
-        <v>0.11008234685210745</v>
-      </c>
-      <c r="D32" s="56">
-        <f>D7/D17</f>
-        <v>9.6237215557987352E-2</v>
-      </c>
-      <c r="E32" s="56">
-        <f>E7/E17</f>
-        <v>7.8590186910711693E-2</v>
-      </c>
-      <c r="F32" s="56">
-        <f>F7/F17</f>
-        <v>0.1461739415070181</v>
-      </c>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="56">
-        <f>B28/B5</f>
-        <v>1.1317710107347303</v>
-      </c>
-      <c r="C33" s="56">
-        <f>C28/C5</f>
-        <v>0.73531540046695631</v>
-      </c>
-      <c r="D33" s="56">
-        <f>D28/D5</f>
-        <v>0.59819743180594076</v>
-      </c>
-      <c r="E33" s="56">
-        <f>E28/E5</f>
-        <v>0.37572594480329896</v>
-      </c>
-      <c r="F33" s="56">
-        <f>F28/F5</f>
-        <v>0.36576215698813158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="57">
-        <f>B20/B22</f>
-        <v>9.531416400425984</v>
-      </c>
-      <c r="C34" s="57">
-        <f t="shared" ref="C34:F34" si="2">C20/C22</f>
-        <v>6.3623135685703884</v>
-      </c>
-      <c r="D34" s="57">
-        <f t="shared" si="2"/>
-        <v>8.0518359207828709</v>
-      </c>
-      <c r="E34" s="57">
-        <f t="shared" si="2"/>
-        <v>10.359135471657812</v>
-      </c>
-      <c r="F34" s="57">
-        <f t="shared" si="2"/>
-        <v>5.6006238127764361</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="56">
-        <f>B25/B20</f>
-        <v>7.7516534844998472E-3</v>
-      </c>
-      <c r="C36" s="56">
-        <f t="shared" ref="C36:F36" si="3">C25/C20</f>
-        <v>1.4293882218410521E-2</v>
-      </c>
-      <c r="D36" s="56">
-        <f t="shared" si="3"/>
-        <v>1.7613386173491855E-2</v>
-      </c>
-      <c r="E36" s="56">
-        <f t="shared" si="3"/>
-        <v>1.7647058823529412E-2</v>
-      </c>
-      <c r="F36" s="56">
-        <f t="shared" si="3"/>
-        <v>2.0519835841313269E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="56">
-        <f>B15/B14</f>
-        <v>0.52349466147123902</v>
-      </c>
-      <c r="C37" s="56">
-        <f>C15/C14</f>
-        <v>1.1400508422126622E-2</v>
-      </c>
-      <c r="D37" s="56">
-        <f>D15/D14</f>
-        <v>-5.5291119805319158E-2</v>
-      </c>
-      <c r="E37" s="56">
-        <f>E15/E14</f>
-        <v>-9.4496559044881509E-2</v>
-      </c>
-      <c r="F37" s="56">
-        <f>F15/F14</f>
-        <v>-0.4566953865042937</v>
+    <row r="39" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="104">
+        <f>B37/(B37+B38)</f>
+        <v>2.1255781017371089</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="105">
+        <f>B38/(B37+B38)</f>
+        <v>-1.1255781017371091</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="65">
+        <f ca="1">B39*B35+B40*B36*(1-highlights!B1)</f>
+        <v>9.6007245033631339E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="81">
+        <f>(G25*(1+0.02))/(assumptions!B5-assumptions!B4)</f>
+        <v>11800351.818523182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="81">
+        <f>B43/(1+0.1)^5</f>
+        <v>7327090.0637209192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="81">
+        <f>SUM(C27:G27,B44)</f>
+        <v>10092854.713239074</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" s="81">
+        <f>B45-highlights!F22</f>
+        <v>10604678.713239074</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="88">
+        <f>B46/highlights!F28 * 1000</f>
+        <v>57.281766484914783</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="75">
+        <f ca="1">assumptions!D2</f>
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="62">
+        <f ca="1">B47/B48-1</f>
+        <v>0.13205072104574667</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A1E1FA-E967-47B0-B93E-C43E58801B3E}">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="35.734375" customWidth="1"/>
+    <col min="2" max="3" width="11.05078125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.20703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.05078125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="12" width="11.5234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="62">
+        <f>(F6/B6)^(1/(F5-B5))-1</f>
+        <v>7.5957698022647735E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="62"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="57">
+        <v>2019</v>
+      </c>
+      <c r="C5" s="57">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="57">
+        <v>2021</v>
+      </c>
+      <c r="E5" s="57">
+        <v>2022</v>
+      </c>
+      <c r="F5" s="57">
+        <v>2023</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="11">
+        <f>income_statement!B2</f>
+        <v>3221443</v>
+      </c>
+      <c r="C6" s="11">
+        <f>income_statement!C2</f>
+        <v>3222411</v>
+      </c>
+      <c r="D6" s="11">
+        <f>income_statement!D2</f>
+        <v>3445551</v>
+      </c>
+      <c r="E6" s="11">
+        <f>income_statement!E2</f>
+        <v>3995519</v>
+      </c>
+      <c r="F6" s="11">
+        <f>income_statement!F2</f>
+        <v>4317489</v>
+      </c>
+      <c r="G6" s="62">
+        <f>(F6/B6)^(1/4)-1</f>
+        <v>7.5957698022647735E-2</v>
+      </c>
+      <c r="H6" s="63">
+        <f>F6*(1+$B$2)</f>
+        <v>4645435.5256781038</v>
+      </c>
+      <c r="I6" s="63">
+        <f t="shared" ref="I6:L6" si="0">H6*(1+$B$2)</f>
+        <v>4998292.1145212408</v>
+      </c>
+      <c r="J6" s="63">
+        <f t="shared" si="0"/>
+        <v>5377950.8775850264</v>
+      </c>
+      <c r="K6" s="63">
+        <f t="shared" si="0"/>
+        <v>5786447.6463252632</v>
+      </c>
+      <c r="L6" s="63">
+        <f t="shared" si="0"/>
+        <v>6225972.8892686982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="11">
+        <f>ABS(income_statement!B5)</f>
+        <v>1204228</v>
+      </c>
+      <c r="C7" s="11">
+        <f>ABS(income_statement!C5)</f>
+        <v>1154951</v>
+      </c>
+      <c r="D7" s="11">
+        <f>ABS(income_statement!D5)</f>
+        <v>1334977</v>
+      </c>
+      <c r="E7" s="11">
+        <f>ABS(income_statement!E5)</f>
+        <v>1698338</v>
+      </c>
+      <c r="F7" s="11">
+        <f>ABS(income_statement!F5)</f>
+        <v>1620437</v>
+      </c>
+      <c r="G7" s="62">
+        <f t="shared" ref="G7:G38" si="1">(F7/B7)^(1/4)-1</f>
+        <v>7.7037581366453667E-2</v>
+      </c>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="11">
+        <f>ABS(SUM(income_statement!B6:B8))</f>
+        <v>1353475</v>
+      </c>
+      <c r="C8" s="11">
+        <f>ABS(SUM(income_statement!C6:C8))</f>
+        <v>1317980</v>
+      </c>
+      <c r="D8" s="11">
+        <f>ABS(SUM(income_statement!D6:D8))</f>
+        <v>1368440</v>
+      </c>
+      <c r="E8" s="11">
+        <f>ABS(SUM(income_statement!E6:E8))</f>
+        <v>1532770</v>
+      </c>
+      <c r="F8" s="11">
+        <f>ABS(SUM(income_statement!F6:F8))</f>
+        <v>1561676</v>
+      </c>
+      <c r="G8" s="62">
+        <f t="shared" si="1"/>
+        <v>3.6418542769312889E-2</v>
+      </c>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="11">
+        <f>income_statement!B9</f>
+        <v>728104</v>
+      </c>
+      <c r="C9" s="11">
+        <f>income_statement!C9</f>
+        <v>780801</v>
+      </c>
+      <c r="D9" s="11">
+        <f>income_statement!D9</f>
+        <v>794644</v>
+      </c>
+      <c r="E9" s="11">
+        <f>income_statement!E9</f>
+        <v>883676</v>
+      </c>
+      <c r="F9" s="11">
+        <f>income_statement!F9</f>
+        <v>1243215</v>
+      </c>
+      <c r="G9" s="62">
+        <f t="shared" si="1"/>
+        <v>0.1431104793723732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="11">
+        <f>income_statement!B12</f>
+        <v>468238</v>
+      </c>
+      <c r="C10" s="11">
+        <f>income_statement!C12</f>
+        <v>523890</v>
+      </c>
+      <c r="D10" s="11">
+        <f>income_statement!D12</f>
+        <v>545596</v>
+      </c>
+      <c r="E10" s="11">
+        <f>income_statement!E12</f>
+        <v>494776</v>
+      </c>
+      <c r="F10" s="11">
+        <f>income_statement!F12</f>
+        <v>984790</v>
+      </c>
+      <c r="G10" s="62">
+        <f t="shared" si="1"/>
+        <v>0.20425717756209383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="11">
+        <f>B10*(1-$B$1)</f>
+        <v>374590.4</v>
+      </c>
+      <c r="C11" s="11">
+        <f>C10*(1-$B$1)</f>
+        <v>419112</v>
+      </c>
+      <c r="D11" s="11">
+        <f>D10*(1-$B$1)</f>
+        <v>436476.80000000005</v>
+      </c>
+      <c r="E11" s="11">
+        <f>E10*(1-$B$1)</f>
+        <v>395820.80000000005</v>
+      </c>
+      <c r="F11" s="11">
+        <f>F10*(1-$B$1)</f>
+        <v>787832</v>
+      </c>
+      <c r="G11" s="62">
+        <f t="shared" si="1"/>
+        <v>0.20425717756209383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="11">
+        <f>income_statement!B19</f>
+        <v>385910</v>
+      </c>
+      <c r="C12" s="11">
+        <f>income_statement!C19</f>
+        <v>560472</v>
+      </c>
+      <c r="D12" s="11">
+        <f>income_statement!D19</f>
+        <v>542300</v>
+      </c>
+      <c r="E12" s="11">
+        <f>income_statement!E19</f>
+        <v>458779</v>
+      </c>
+      <c r="F12" s="11">
+        <f>income_statement!F19</f>
+        <v>966813</v>
+      </c>
+      <c r="G12" s="62">
+        <f t="shared" si="1"/>
+        <v>0.25809695791895071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="62"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="11">
+        <f>cash_flow_statement!B7</f>
+        <v>575479</v>
+      </c>
+      <c r="C14" s="11">
+        <f>cash_flow_statement!C7</f>
+        <v>588810</v>
+      </c>
+      <c r="D14" s="11">
+        <f>cash_flow_statement!D7</f>
+        <v>591657</v>
+      </c>
+      <c r="E14" s="11">
+        <f>cash_flow_statement!E7</f>
+        <v>394715</v>
+      </c>
+      <c r="F14" s="11">
+        <f>cash_flow_statement!F7</f>
+        <v>818804</v>
+      </c>
+      <c r="G14" s="62">
+        <f t="shared" si="1"/>
+        <v>9.2163400593102907E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="11">
+        <f>SUM(cash_flow_statement!B10,cash_flow_statement!B11)</f>
+        <v>-257084</v>
+      </c>
+      <c r="C15" s="11">
+        <f>SUM(cash_flow_statement!C10,cash_flow_statement!C11)</f>
+        <v>-228139</v>
+      </c>
+      <c r="D15" s="11">
+        <f>SUM(cash_flow_statement!D10,cash_flow_statement!D11)</f>
+        <v>-214447</v>
+      </c>
+      <c r="E15" s="11">
+        <f>SUM(cash_flow_statement!E10,cash_flow_statement!E11)</f>
+        <v>-266738</v>
+      </c>
+      <c r="F15" s="11">
+        <f>SUM(cash_flow_statement!F10,cash_flow_statement!F11)</f>
+        <v>-303704</v>
+      </c>
+      <c r="G15" s="62">
+        <f t="shared" si="1"/>
+        <v>4.2542734085359024E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="67">
+        <f>ABS(B15)/B6</f>
+        <v>7.9803988461071632E-2</v>
+      </c>
+      <c r="C16" s="67">
+        <f t="shared" ref="C16:F16" si="2">ABS(C15)/C6</f>
+        <v>7.0797610857212187E-2</v>
+      </c>
+      <c r="D16" s="67">
+        <f t="shared" si="2"/>
+        <v>6.2238811731418285E-2</v>
+      </c>
+      <c r="E16" s="67">
+        <f t="shared" si="2"/>
+        <v>6.6759287091364097E-2</v>
+      </c>
+      <c r="F16" s="67">
+        <f t="shared" si="2"/>
+        <v>7.0342738568644883E-2</v>
+      </c>
+      <c r="G16" s="62"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="13">
+        <f>SUM(cash_flow_statement!B22,cash_flow_statement!B23,cash_flow_statement!B24)</f>
+        <v>98267</v>
+      </c>
+      <c r="C17" s="13">
+        <f>SUM(cash_flow_statement!C22,cash_flow_statement!C23,cash_flow_statement!C24)</f>
+        <v>-27250</v>
+      </c>
+      <c r="D17" s="13">
+        <f>SUM(cash_flow_statement!D22,cash_flow_statement!D23,cash_flow_statement!D24)</f>
+        <v>-112410</v>
+      </c>
+      <c r="E17" s="13">
+        <f>SUM(cash_flow_statement!E22,cash_flow_statement!E23,cash_flow_statement!E24)</f>
+        <v>63421</v>
+      </c>
+      <c r="F17" s="13">
+        <f>SUM(cash_flow_statement!F22,cash_flow_statement!F23,cash_flow_statement!F24)</f>
+        <v>-595465</v>
+      </c>
+      <c r="G17" s="62" t="e">
+        <f>(F17/B17)^(1/4)-1</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="14">
+        <f>SUM(B14:B17)</f>
+        <v>416662.07980398845</v>
+      </c>
+      <c r="C18" s="14">
+        <f t="shared" ref="C18:F18" si="3">SUM(C14:C17)</f>
+        <v>333421.07079761085</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="3"/>
+        <v>264800.06223881175</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="3"/>
+        <v>191398.06675928709</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="3"/>
+        <v>-80364.929657261411</v>
+      </c>
+      <c r="G18" s="62" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="62"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="11">
+        <f>SUM(balance_sheet!B30,balance_sheet!B40,balance_sheet!B41)</f>
+        <v>1275779</v>
+      </c>
+      <c r="C20" s="11">
+        <f>SUM(balance_sheet!C30,balance_sheet!C40,balance_sheet!C41)</f>
+        <v>1232168</v>
+      </c>
+      <c r="D20" s="11">
+        <f>SUM(balance_sheet!D30,balance_sheet!D40,balance_sheet!D41)</f>
+        <v>1137062</v>
+      </c>
+      <c r="E20" s="11">
+        <f>SUM(balance_sheet!E30,balance_sheet!E40,balance_sheet!E41)</f>
+        <v>1214722</v>
+      </c>
+      <c r="F20" s="11">
+        <f>SUM(balance_sheet!F30,balance_sheet!F40,balance_sheet!F41)</f>
+        <v>608888</v>
+      </c>
+      <c r="G20" s="62">
+        <f t="shared" si="1"/>
+        <v>-0.16882879058056532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="13">
+        <f>balance_sheet!B22</f>
+        <v>837403</v>
+      </c>
+      <c r="C21" s="13">
+        <f>balance_sheet!C22</f>
+        <v>1218279</v>
+      </c>
+      <c r="D21" s="13">
+        <f>balance_sheet!D22</f>
+        <v>1203611</v>
+      </c>
+      <c r="E21" s="13">
+        <f>balance_sheet!E22</f>
+        <v>1341488</v>
+      </c>
+      <c r="F21" s="13">
+        <f>balance_sheet!F22</f>
+        <v>1120712</v>
+      </c>
+      <c r="G21" s="62">
+        <f t="shared" si="1"/>
+        <v>7.5572964823968469E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="14">
+        <f>B20-B21</f>
+        <v>438376</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" ref="C22:F22" si="4">C20-C21</f>
+        <v>13889</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="4"/>
+        <v>-66549</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="4"/>
+        <v>-126766</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="4"/>
+        <v>-511824</v>
+      </c>
+      <c r="G22" s="62" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="13">
+        <f>balance_sheet!B61</f>
+        <v>3690821</v>
+      </c>
+      <c r="C23" s="13">
+        <f>balance_sheet!C61</f>
+        <v>3603007</v>
+      </c>
+      <c r="D23" s="13">
+        <f>balance_sheet!D61</f>
+        <v>4375204</v>
+      </c>
+      <c r="E23" s="13">
+        <f>balance_sheet!E61</f>
+        <v>4911457</v>
+      </c>
+      <c r="F23" s="13">
+        <f>balance_sheet!F61</f>
+        <v>5632028</v>
+      </c>
+      <c r="G23" s="62">
+        <f t="shared" si="1"/>
+        <v>0.11143854859117819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="14">
+        <f>SUM(B22:B23)</f>
+        <v>4129197</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" ref="C24:F24" si="5">SUM(C22:C23)</f>
+        <v>3616896</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="5"/>
+        <v>4308655</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="5"/>
+        <v>4784691</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="5"/>
+        <v>5120204</v>
+      </c>
+      <c r="G24" s="62">
+        <f t="shared" si="1"/>
+        <v>5.5250132489215842E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="62"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="56">
+        <v>385671</v>
+      </c>
+      <c r="C26" s="56">
+        <v>560246</v>
+      </c>
+      <c r="D26" s="56">
+        <v>541903</v>
+      </c>
+      <c r="E26" s="56">
+        <v>458786</v>
+      </c>
+      <c r="F26" s="56">
+        <v>966545</v>
+      </c>
+      <c r="G26" s="62">
+        <f t="shared" si="1"/>
+        <v>0.25820461454614518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="55">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C27" s="55">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="D27" s="55">
+        <v>22.71</v>
+      </c>
+      <c r="E27" s="55">
+        <v>25.5</v>
+      </c>
+      <c r="F27" s="55">
+        <v>29.24</v>
+      </c>
+      <c r="G27" s="62">
+        <f t="shared" si="1"/>
+        <v>0.13052737852370599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="61">
+        <v>191409874</v>
+      </c>
+      <c r="C28" s="61">
+        <v>192288607</v>
+      </c>
+      <c r="D28" s="61">
+        <v>192131838</v>
+      </c>
+      <c r="E28" s="61">
+        <v>186377503</v>
+      </c>
+      <c r="F28" s="61">
+        <v>185131838</v>
+      </c>
+      <c r="G28" s="62">
+        <f t="shared" si="1"/>
+        <v>-8.3025560326389636E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="58">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="C29" s="58">
+        <v>2.7490000000000001</v>
+      </c>
+      <c r="D29" s="58">
+        <f>D26/D28 *1000</f>
+        <v>2.8204747617102379</v>
+      </c>
+      <c r="E29" s="58">
+        <f>E26/E28 *1000</f>
+        <v>2.4615953782791045</v>
+      </c>
+      <c r="F29" s="58">
+        <f>F26/F28 *1000</f>
+        <v>5.2208469944537574</v>
+      </c>
+      <c r="G29" s="62">
+        <f t="shared" si="1"/>
+        <v>0.29125300268040122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="62"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="60">
+        <v>26559</v>
+      </c>
+      <c r="C31" s="60">
+        <v>31802</v>
+      </c>
+      <c r="D31" s="60">
+        <v>48033</v>
+      </c>
+      <c r="E31" s="60">
+        <v>74053</v>
+      </c>
+      <c r="F31" s="60">
+        <v>83309</v>
+      </c>
+      <c r="G31" s="62">
+        <f t="shared" si="1"/>
+        <v>0.33082224204857358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="59">
+        <f>B31/B28*1000</f>
+        <v>0.13875459737254725</v>
+      </c>
+      <c r="C32" s="59">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="59">
+        <v>0.4</v>
+      </c>
+      <c r="E32" s="59">
+        <v>0.45</v>
+      </c>
+      <c r="F32" s="59">
+        <v>0.6</v>
+      </c>
+      <c r="G32" s="62">
+        <f t="shared" si="1"/>
+        <v>0.44203555059449395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="62"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="62"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="11">
+        <f>(balance_sheet!B23-balance_sheet!B22)-(balance_sheet!B47-balance_sheet!B41-balance_sheet!B40)</f>
+        <v>519817</v>
+      </c>
+      <c r="C35" s="11">
+        <f>(balance_sheet!C23-balance_sheet!C22)-(balance_sheet!C47-balance_sheet!C41-balance_sheet!C40)</f>
+        <v>334240</v>
+      </c>
+      <c r="D35" s="11">
+        <f>(balance_sheet!D23-balance_sheet!D22)-(balance_sheet!D47-balance_sheet!D41-balance_sheet!D40)</f>
+        <v>505980</v>
+      </c>
+      <c r="E35" s="11">
+        <f>(balance_sheet!E23-balance_sheet!E22)-(balance_sheet!E47-balance_sheet!E41-balance_sheet!E40)</f>
+        <v>799631</v>
+      </c>
+      <c r="F35" s="11">
+        <f>(balance_sheet!F23-balance_sheet!F22)-(balance_sheet!F47-balance_sheet!F41-balance_sheet!F40)</f>
+        <v>1014099</v>
+      </c>
+      <c r="G35" s="62">
+        <f t="shared" si="1"/>
+        <v>0.18183669139552849</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="67">
+        <f>B35/B6</f>
+        <v>0.16136153891284125</v>
+      </c>
+      <c r="C36" s="67">
+        <f t="shared" ref="C36:F36" si="6">C35/C6</f>
+        <v>0.10372357840138952</v>
+      </c>
+      <c r="D36" s="67">
+        <f t="shared" si="6"/>
+        <v>0.14685024253014975</v>
+      </c>
+      <c r="E36" s="67">
+        <f t="shared" si="6"/>
+        <v>0.20013194781453925</v>
+      </c>
+      <c r="F36" s="67">
+        <f t="shared" si="6"/>
+        <v>0.2348816638560052</v>
+      </c>
+      <c r="G36" s="62"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
+        <f>C35-B35</f>
+        <v>-185577</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" ref="D37:F37" si="7">D35-C35</f>
+        <v>171740</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" si="7"/>
+        <v>293651</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" si="7"/>
+        <v>214468</v>
+      </c>
+      <c r="G37" s="62"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="56">
+        <f>SUM(B26,B22)</f>
+        <v>824047</v>
+      </c>
+      <c r="C38" s="56">
+        <f>SUM(C26,C22)</f>
+        <v>574135</v>
+      </c>
+      <c r="D38" s="56">
+        <f>SUM(D26,D22)</f>
+        <v>475354</v>
+      </c>
+      <c r="E38" s="56">
+        <f>SUM(E26,E22)</f>
+        <v>332020</v>
+      </c>
+      <c r="F38" s="56">
+        <f>SUM(F26,F22)</f>
+        <v>454721</v>
+      </c>
+      <c r="G38" s="62">
+        <f t="shared" si="1"/>
+        <v>-0.13811711409158478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="57">
+        <v>2019</v>
+      </c>
+      <c r="C40" s="57">
+        <v>2020</v>
+      </c>
+      <c r="D40" s="57">
+        <v>2021</v>
+      </c>
+      <c r="E40" s="57">
+        <v>2022</v>
+      </c>
+      <c r="F40" s="57">
+        <v>2023</v>
+      </c>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="K40" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="L40" s="57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="52">
+        <f>B10/B6</f>
+        <v>0.14535039111354756</v>
+      </c>
+      <c r="C41" s="52">
+        <f>C10/C6</f>
+        <v>0.16257702695280024</v>
+      </c>
+      <c r="D41" s="52">
+        <f>D10/D6</f>
+        <v>0.15834796814791016</v>
+      </c>
+      <c r="E41" s="52">
+        <f>E10/E6</f>
+        <v>0.12383272360862256</v>
+      </c>
+      <c r="F41" s="52">
+        <f>F10/F6</f>
+        <v>0.2280932273365375</v>
+      </c>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52">
+        <f>H10/H6</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="52">
+        <f>I10/I6</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="52">
+        <f>J10/J6</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="52">
+        <f>K10/K6</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="52">
+        <f>L10/L6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="52">
+        <f>B11/B24</f>
+        <v>9.0717493013774839E-2</v>
+      </c>
+      <c r="C42" s="52">
+        <f>C11/C24</f>
+        <v>0.11587615458116574</v>
+      </c>
+      <c r="D42" s="52">
+        <f>D11/D24</f>
+        <v>0.10130233216630249</v>
+      </c>
+      <c r="E42" s="52">
+        <f>E11/E24</f>
+        <v>8.2726512537591251E-2</v>
+      </c>
+      <c r="F42" s="52">
+        <f>F11/F24</f>
+        <v>0.15386730684949271</v>
+      </c>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="52">
+        <f>B12/B6</f>
+        <v>0.11979414194198065</v>
+      </c>
+      <c r="C43" s="52">
+        <f t="shared" ref="C43:F43" si="8">C12/C6</f>
+        <v>0.17392939634329699</v>
+      </c>
+      <c r="D43" s="52">
+        <f t="shared" si="8"/>
+        <v>0.15739137223625482</v>
+      </c>
+      <c r="E43" s="52">
+        <f t="shared" si="8"/>
+        <v>0.11482338089244476</v>
+      </c>
+      <c r="F43" s="52">
+        <f t="shared" si="8"/>
+        <v>0.22392946455682922</v>
+      </c>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="52">
+        <f>B38/B9</f>
+        <v>1.1317710107347303</v>
+      </c>
+      <c r="C44" s="52">
+        <f>C38/C9</f>
+        <v>0.73531540046695631</v>
+      </c>
+      <c r="D44" s="52">
+        <f>D38/D9</f>
+        <v>0.59819743180594076</v>
+      </c>
+      <c r="E44" s="52">
+        <f>E38/E9</f>
+        <v>0.37572594480329896</v>
+      </c>
+      <c r="F44" s="52">
+        <f>F38/F9</f>
+        <v>0.36576215698813158</v>
+      </c>
+      <c r="G44" s="52"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="53">
+        <f>B27/B29</f>
+        <v>9.531416400425984</v>
+      </c>
+      <c r="C45" s="53">
+        <f>C27/C29</f>
+        <v>6.3623135685703884</v>
+      </c>
+      <c r="D45" s="53">
+        <f>D27/D29</f>
+        <v>8.0518359207828709</v>
+      </c>
+      <c r="E45" s="53">
+        <f>E27/E29</f>
+        <v>10.359135471657812</v>
+      </c>
+      <c r="F45" s="53">
+        <f>F27/F29</f>
+        <v>5.6006238127764361</v>
+      </c>
+      <c r="G45" s="53"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="52">
+        <f>B18/B26</f>
+        <v>1.0803562616945233</v>
+      </c>
+      <c r="C46" s="52">
+        <f t="shared" ref="C46:F46" si="9">C18/C26</f>
+        <v>0.59513333570897575</v>
+      </c>
+      <c r="D46" s="52">
+        <f t="shared" si="9"/>
+        <v>0.48864845228539378</v>
+      </c>
+      <c r="E46" s="52">
+        <f t="shared" si="9"/>
+        <v>0.41718375617234854</v>
+      </c>
+      <c r="F46" s="52">
+        <f t="shared" si="9"/>
+        <v>-8.3146599131195556E-2</v>
+      </c>
+      <c r="G46" s="52"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="52">
+        <f>B32/B27</f>
+        <v>7.7516534844998472E-3</v>
+      </c>
+      <c r="C47" s="52">
+        <f>C32/C27</f>
+        <v>1.4293882218410521E-2</v>
+      </c>
+      <c r="D47" s="52">
+        <f>D32/D27</f>
+        <v>1.7613386173491855E-2</v>
+      </c>
+      <c r="E47" s="52">
+        <f>E32/E27</f>
+        <v>1.7647058823529412E-2</v>
+      </c>
+      <c r="F47" s="52">
+        <f>F32/F27</f>
+        <v>2.0519835841313269E-2</v>
+      </c>
+      <c r="G47" s="52"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="52">
+        <f>B22/B21</f>
+        <v>0.52349466147123902</v>
+      </c>
+      <c r="C48" s="52">
+        <f>C22/C21</f>
+        <v>1.1400508422126622E-2</v>
+      </c>
+      <c r="D48" s="52">
+        <f>D22/D21</f>
+        <v>-5.5291119805319158E-2</v>
+      </c>
+      <c r="E48" s="52">
+        <f>E22/E21</f>
+        <v>-9.4496559044881509E-2</v>
+      </c>
+      <c r="F48" s="52">
+        <f>F22/F21</f>
+        <v>-0.4566953865042937</v>
+      </c>
+      <c r="G48" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="G17" evalError="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1905,39 +4373,39 @@
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="33">
         <v>3221443</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="33">
         <v>3222411</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="33">
         <v>3445551</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="33">
         <v>3995519</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="33">
         <v>4317489</v>
       </c>
     </row>
@@ -2062,26 +4530,26 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="33">
         <f>SUM(B2:B8)</f>
         <v>728104</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="33">
         <f t="shared" ref="C9" si="0">SUM(C2:C8)</f>
         <v>780801</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="33">
         <f>SUM(D2:D8)</f>
         <v>794644</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="33">
         <f>SUM(E2:E8)</f>
         <v>883676</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="33">
         <f>SUM(F2:F8)</f>
         <v>1243215</v>
       </c>
@@ -2127,26 +4595,26 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="33">
         <f>SUM(B9:B11)</f>
         <v>468238</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="33">
         <f t="shared" ref="C12" si="1">SUM(C9:C11)</f>
         <v>523890</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="33">
         <f>SUM(D9:D11)</f>
         <v>545596</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="33">
         <f>SUM(E9:E11)</f>
         <v>494776</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="33">
         <f>SUM(F9:F11)</f>
         <v>984790</v>
       </c>
@@ -2232,26 +4700,26 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="33">
         <f>SUM(B12:B16)</f>
         <v>481956</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="33">
         <f t="shared" ref="C17" si="2">SUM(C12:C16)</f>
         <v>700259</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="33">
         <f>SUM(D12:D16)</f>
         <v>635252</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="33">
         <f>SUM(E12:E16)</f>
         <v>589296</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="33">
         <f>SUM(F12:F16)</f>
         <v>1140869</v>
       </c>
@@ -2277,26 +4745,26 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="33">
         <f>SUM(B17:B18)</f>
         <v>385910</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="33">
         <f t="shared" ref="C19" si="3">SUM(C17:C18)</f>
         <v>560472</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="33">
         <f>SUM(D17:D18)</f>
         <v>542300</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="33">
         <f>SUM(E17:E18)</f>
         <v>458779</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="33">
         <f>SUM(F17:F18)</f>
         <v>966813</v>
       </c>
@@ -2360,7 +4828,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="8"/>
@@ -2423,12 +4891,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8845333B-DB41-45A8-96E2-B2A51EB9876A}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2443,19 +4911,19 @@
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="31">
+      <c r="B1" s="6">
         <v>2019</v>
       </c>
-      <c r="C1" s="31">
+      <c r="C1" s="6">
         <v>2020</v>
       </c>
-      <c r="D1" s="31">
+      <c r="D1" s="6">
         <v>2021</v>
       </c>
-      <c r="E1" s="31">
+      <c r="E1" s="6">
         <v>2022</v>
       </c>
-      <c r="F1" s="31">
+      <c r="F1" s="6">
         <v>2023</v>
       </c>
     </row>
@@ -2467,14 +4935,14 @@
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
@@ -2881,26 +5349,26 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="27">
         <f>SUM(B16,B23,B25)</f>
         <v>6402564</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="27">
         <f>SUM(C16,C23,C25)</f>
         <v>6386760</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="27">
         <f t="shared" ref="D26" si="2">SUM(D16,D23,D25)</f>
         <v>6921783</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="27">
         <f>SUM(E16,E23,E25)</f>
         <v>7503088</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="27">
         <f>SUM(F16,F23,F25)</f>
         <v>7615403</v>
       </c>
@@ -2913,24 +5381,24 @@
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
@@ -3280,46 +5748,46 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="12">
         <v>0</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="12">
         <v>0</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="12">
         <v>0</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="12">
         <v>0</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="12">
         <v>10354</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50" s="24">
         <f>SUM(B37,B47,B49)</f>
         <v>2711743</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="24">
         <f>SUM(C37,C47,C49)</f>
         <v>2783753</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="24">
         <f t="shared" ref="D50" si="4">SUM(D37,D47,D49)</f>
         <v>2546579</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="24">
         <f>SUM(E37,E47,E49)</f>
         <v>2591631</v>
       </c>
-      <c r="F50" s="27">
+      <c r="F50" s="24">
         <f>SUM(F37,F47,F49)</f>
         <v>1983375</v>
       </c>
@@ -3333,24 +5801,24 @@
       <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
@@ -3498,26 +5966,26 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="24">
+      <c r="B61" s="21">
         <f>SUM(B59:B60)</f>
         <v>3690821</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="21">
         <f>SUM(C59:C60)</f>
         <v>3603007</v>
       </c>
-      <c r="D61" s="24">
+      <c r="D61" s="21">
         <f t="shared" ref="D61" si="6">SUM(D59:D60)</f>
         <v>4375204</v>
       </c>
-      <c r="E61" s="24">
+      <c r="E61" s="21">
         <f>SUM(E59:E60)</f>
         <v>4911457</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F61" s="21">
         <f>SUM(F59:F60)</f>
         <v>5632028</v>
       </c>
@@ -3531,26 +5999,26 @@
       <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="33">
+      <c r="B63" s="29">
         <f>SUM(B61,B50)</f>
         <v>6402564</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="29">
         <f>SUM(C61,C50)</f>
         <v>6386760</v>
       </c>
-      <c r="D63" s="33">
+      <c r="D63" s="29">
         <f t="shared" ref="D63" si="7">SUM(D61,D50)</f>
         <v>6921783</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E63" s="29">
         <f>SUM(E61,E50)</f>
         <v>7503088</v>
       </c>
-      <c r="F63" s="33">
+      <c r="F63" s="29">
         <f>SUM(F61,F50)</f>
         <v>7615403</v>
       </c>
@@ -3560,19 +6028,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759C6A6D-CDAA-479D-98EC-AAFD6F7BE32F}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="49.5234375" customWidth="1"/>
-    <col min="2" max="5" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.20703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -3580,49 +6048,49 @@
         <v>24</v>
       </c>
       <c r="B1" s="6">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="C1" s="6">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D1" s="6">
         <v>2021</v>
       </c>
       <c r="E1" s="6">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F1" s="6">
-        <v>2019</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="11">
-        <v>1049678</v>
+        <v>691452</v>
       </c>
       <c r="C4" s="11">
-        <v>575435</v>
+        <v>743874</v>
       </c>
       <c r="D4" s="11">
         <v>752376</v>
       </c>
       <c r="E4" s="11">
-        <v>743874</v>
+        <v>575435</v>
       </c>
       <c r="F4" s="11">
-        <v>691452</v>
+        <v>1049678</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3630,19 +6098,19 @@
         <v>33</v>
       </c>
       <c r="B5" s="11">
-        <v>-35668</v>
+        <v>-31698</v>
       </c>
       <c r="C5" s="11">
-        <v>-26821</v>
+        <v>-29196</v>
       </c>
       <c r="D5" s="11">
         <v>-26345</v>
       </c>
       <c r="E5" s="11">
-        <v>-29196</v>
+        <v>-26821</v>
       </c>
       <c r="F5" s="11">
-        <v>-31698</v>
+        <v>-35668</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -3650,44 +6118,44 @@
         <v>34</v>
       </c>
       <c r="B6" s="12">
-        <v>-195206</v>
+        <v>-84275</v>
       </c>
       <c r="C6" s="12">
-        <v>-153899</v>
+        <v>-125868</v>
       </c>
       <c r="D6" s="12">
         <v>-134374</v>
       </c>
       <c r="E6" s="12">
-        <v>-125868</v>
+        <v>-153899</v>
       </c>
       <c r="F6" s="12">
-        <v>-84275</v>
+        <v>-195206</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="47">
         <f>SUM(B4:B6)</f>
+        <v>575479</v>
+      </c>
+      <c r="C7" s="47">
+        <f>SUM(C4:C6)</f>
+        <v>588810</v>
+      </c>
+      <c r="D7" s="47">
+        <f t="shared" ref="D7" si="0">SUM(D4:D6)</f>
+        <v>591657</v>
+      </c>
+      <c r="E7" s="47">
+        <f>SUM(E4:E6)</f>
+        <v>394715</v>
+      </c>
+      <c r="F7" s="47">
+        <f>SUM(F4:F6)</f>
         <v>818804</v>
-      </c>
-      <c r="C7" s="51">
-        <f>SUM(C4:C6)</f>
-        <v>394715</v>
-      </c>
-      <c r="D7" s="51">
-        <f t="shared" ref="D7:F7" si="0">SUM(D4:D6)</f>
-        <v>591657</v>
-      </c>
-      <c r="E7" s="51">
-        <f t="shared" si="0"/>
-        <v>588810</v>
-      </c>
-      <c r="F7" s="51">
-        <f t="shared" si="0"/>
-        <v>575479</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3698,33 +6166,33 @@
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="11">
-        <v>-5692</v>
+        <v>-7067</v>
       </c>
       <c r="C10" s="11">
-        <v>-1433</v>
+        <v>-5239</v>
       </c>
       <c r="D10" s="11">
         <v>-3124</v>
       </c>
       <c r="E10" s="11">
-        <v>-5239</v>
+        <v>-1433</v>
       </c>
       <c r="F10" s="11">
-        <v>-7067</v>
+        <v>-5692</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3732,19 +6200,19 @@
         <v>38</v>
       </c>
       <c r="B11" s="11">
-        <v>-298012</v>
+        <v>-250017</v>
       </c>
       <c r="C11" s="11">
-        <v>-265305</v>
+        <v>-222900</v>
       </c>
       <c r="D11" s="11">
         <v>-211323</v>
       </c>
       <c r="E11" s="11">
-        <v>-222900</v>
+        <v>-265305</v>
       </c>
       <c r="F11" s="11">
-        <v>-250017</v>
+        <v>-298012</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3752,7 +6220,7 @@
         <v>113</v>
       </c>
       <c r="B12" s="11">
-        <v>0</v>
+        <v>-76423</v>
       </c>
       <c r="C12" s="11">
         <v>0</v>
@@ -3764,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="11">
-        <v>-76423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3772,19 +6240,19 @@
         <v>39</v>
       </c>
       <c r="B13" s="11">
-        <v>-5815</v>
+        <v>-4161</v>
       </c>
       <c r="C13" s="11">
-        <v>-4085</v>
+        <v>-167</v>
       </c>
       <c r="D13" s="11">
         <v>-2605</v>
       </c>
       <c r="E13" s="11">
-        <v>-167</v>
+        <v>-4085</v>
       </c>
       <c r="F13" s="11">
-        <v>-4161</v>
+        <v>-5815</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3792,19 +6260,19 @@
         <v>40</v>
       </c>
       <c r="B14" s="11">
-        <v>20370</v>
+        <v>11976</v>
       </c>
       <c r="C14" s="11">
-        <v>11694</v>
+        <v>8112</v>
       </c>
       <c r="D14" s="11">
         <v>21561</v>
       </c>
       <c r="E14" s="11">
-        <v>8112</v>
+        <v>11694</v>
       </c>
       <c r="F14" s="11">
-        <v>11976</v>
+        <v>20370</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3812,19 +6280,19 @@
         <v>41</v>
       </c>
       <c r="B15" s="11">
-        <v>1600</v>
+        <v>467</v>
       </c>
       <c r="C15" s="11">
-        <v>465</v>
+        <v>5982</v>
       </c>
       <c r="D15" s="11">
         <v>18001</v>
       </c>
       <c r="E15" s="11">
-        <v>5982</v>
+        <v>465</v>
       </c>
       <c r="F15" s="11">
-        <v>467</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3832,19 +6300,19 @@
         <v>42</v>
       </c>
       <c r="B16" s="11">
-        <v>-153595</v>
+        <v>7692</v>
       </c>
       <c r="C16" s="11">
-        <v>17762</v>
+        <v>-3042</v>
       </c>
       <c r="D16" s="11">
         <v>-226519</v>
       </c>
       <c r="E16" s="11">
-        <v>-3042</v>
+        <v>17762</v>
       </c>
       <c r="F16" s="11">
-        <v>7692</v>
+        <v>-153595</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3852,19 +6320,19 @@
         <v>43</v>
       </c>
       <c r="B17" s="11">
-        <v>84663</v>
+        <v>84384</v>
       </c>
       <c r="C17" s="11">
-        <v>75751</v>
+        <v>198161</v>
       </c>
       <c r="D17" s="11">
         <v>59823</v>
       </c>
       <c r="E17" s="11">
-        <v>198161</v>
+        <v>75751</v>
       </c>
       <c r="F17" s="11">
-        <v>84384</v>
+        <v>84663</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -3872,44 +6340,44 @@
         <v>44</v>
       </c>
       <c r="B18" s="12">
-        <v>52371</v>
+        <v>13448</v>
       </c>
       <c r="C18" s="12">
-        <v>23989</v>
+        <v>10454</v>
       </c>
       <c r="D18" s="12">
         <v>10789</v>
       </c>
       <c r="E18" s="12">
-        <v>10454</v>
+        <v>23989</v>
       </c>
       <c r="F18" s="12">
-        <v>13448</v>
+        <v>52371</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="43">
         <f>SUM(B10:B18)</f>
+        <v>-219701</v>
+      </c>
+      <c r="C19" s="43">
+        <f>SUM(C10:C18)</f>
+        <v>-8639</v>
+      </c>
+      <c r="D19" s="43">
+        <f t="shared" ref="D19" si="1">SUM(D10:D18)</f>
+        <v>-334036</v>
+      </c>
+      <c r="E19" s="43">
+        <f>SUM(E10:E18)</f>
+        <v>-141162</v>
+      </c>
+      <c r="F19" s="43">
+        <f>SUM(F10:F18)</f>
         <v>-304110</v>
-      </c>
-      <c r="C19" s="47">
-        <f t="shared" ref="C19:F19" si="1">SUM(C10:C18)</f>
-        <v>-141162</v>
-      </c>
-      <c r="D19" s="47">
-        <f t="shared" si="1"/>
-        <v>-334036</v>
-      </c>
-      <c r="E19" s="47">
-        <f t="shared" si="1"/>
-        <v>-8639</v>
-      </c>
-      <c r="F19" s="47">
-        <f t="shared" si="1"/>
-        <v>-219701</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3920,33 +6388,33 @@
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="11">
+        <v>249003</v>
+      </c>
+      <c r="C22" s="11">
         <v>0</v>
-      </c>
-      <c r="C22" s="11">
-        <v>200145</v>
       </c>
       <c r="D22" s="11">
         <v>0</v>
       </c>
       <c r="E22" s="11">
+        <v>200145</v>
+      </c>
+      <c r="F22" s="11">
         <v>0</v>
-      </c>
-      <c r="F22" s="11">
-        <v>249003</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3954,19 +6422,19 @@
         <v>47</v>
       </c>
       <c r="B23" s="11">
-        <v>-595461</v>
+        <v>-150114</v>
       </c>
       <c r="C23" s="11">
-        <v>-136792</v>
+        <v>-26414</v>
       </c>
       <c r="D23" s="11">
         <v>-111985</v>
       </c>
       <c r="E23" s="11">
-        <v>-26414</v>
+        <v>-136792</v>
       </c>
       <c r="F23" s="11">
-        <v>-150114</v>
+        <v>-595461</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3974,19 +6442,19 @@
         <v>48</v>
       </c>
       <c r="B24" s="11">
-        <v>-4</v>
+        <v>-622</v>
       </c>
       <c r="C24" s="11">
-        <v>68</v>
+        <v>-836</v>
       </c>
       <c r="D24" s="11">
         <v>-425</v>
       </c>
       <c r="E24" s="11">
-        <v>-836</v>
+        <v>68</v>
       </c>
       <c r="F24" s="11">
-        <v>-622</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3994,19 +6462,19 @@
         <v>49</v>
       </c>
       <c r="B25" s="11">
-        <v>-21426</v>
+        <v>-26896</v>
       </c>
       <c r="C25" s="11">
-        <v>-24525</v>
+        <v>-24707</v>
       </c>
       <c r="D25" s="11">
         <v>-23283</v>
       </c>
       <c r="E25" s="11">
-        <v>-24707</v>
+        <v>-24525</v>
       </c>
       <c r="F25" s="11">
-        <v>-26896</v>
+        <v>-21426</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4014,19 +6482,19 @@
         <v>50</v>
       </c>
       <c r="B26" s="11">
-        <v>-4226</v>
+        <v>-8471</v>
       </c>
       <c r="C26" s="11">
-        <v>5408</v>
+        <v>-13133</v>
       </c>
       <c r="D26" s="11">
         <v>-3938</v>
       </c>
       <c r="E26" s="11">
-        <v>-13133</v>
+        <v>5408</v>
       </c>
       <c r="F26" s="11">
-        <v>-8471</v>
+        <v>-4226</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4034,19 +6502,19 @@
         <v>51</v>
       </c>
       <c r="B27" s="11">
-        <v>-1586</v>
+        <v>-1663</v>
       </c>
       <c r="C27" s="11">
-        <v>-3</v>
+        <v>-29222</v>
       </c>
       <c r="D27" s="11">
         <v>-1</v>
       </c>
       <c r="E27" s="11">
-        <v>-29222</v>
+        <v>-3</v>
       </c>
       <c r="F27" s="11">
-        <v>-1663</v>
+        <v>-1586</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4057,13 +6525,13 @@
         <v>0</v>
       </c>
       <c r="C28" s="11">
-        <v>-123218</v>
+        <v>-7326</v>
       </c>
       <c r="D28" s="11">
         <v>0</v>
       </c>
       <c r="E28" s="11">
-        <v>-7326</v>
+        <v>-123218</v>
       </c>
       <c r="F28" s="11">
         <v>0</v>
@@ -4074,19 +6542,19 @@
         <v>53</v>
       </c>
       <c r="B29" s="11">
-        <v>-83309</v>
+        <v>-26559</v>
       </c>
       <c r="C29" s="11">
-        <v>-73351</v>
+        <v>-31802</v>
       </c>
       <c r="D29" s="11">
         <v>-191880</v>
       </c>
       <c r="E29" s="11">
-        <v>-31802</v>
+        <v>-73351</v>
       </c>
       <c r="F29" s="11">
-        <v>-26559</v>
+        <v>-83309</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -4094,44 +6562,44 @@
         <v>54</v>
       </c>
       <c r="B30" s="12">
-        <v>-1</v>
+        <v>-289</v>
       </c>
       <c r="C30" s="12">
-        <v>-136</v>
+        <v>-190</v>
       </c>
       <c r="D30" s="12">
         <v>-59</v>
       </c>
       <c r="E30" s="12">
-        <v>-190</v>
+        <v>-136</v>
       </c>
       <c r="F30" s="12">
-        <v>-289</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="45">
+      <c r="B31" s="41">
         <f>SUM(B22:B30)</f>
+        <v>34389</v>
+      </c>
+      <c r="C31" s="41">
+        <f>SUM(C22:C30)</f>
+        <v>-133630</v>
+      </c>
+      <c r="D31" s="41">
+        <f t="shared" ref="D31" si="2">SUM(D22:D30)</f>
+        <v>-331571</v>
+      </c>
+      <c r="E31" s="41">
+        <f>SUM(E22:E30)</f>
+        <v>-152404</v>
+      </c>
+      <c r="F31" s="41">
+        <f>SUM(F22:F30)</f>
         <v>-706013</v>
-      </c>
-      <c r="C31" s="45">
-        <f t="shared" ref="C31:F31" si="2">SUM(C22:C30)</f>
-        <v>-152404</v>
-      </c>
-      <c r="D31" s="45">
-        <f t="shared" si="2"/>
-        <v>-331571</v>
-      </c>
-      <c r="E31" s="45">
-        <f t="shared" si="2"/>
-        <v>-133630</v>
-      </c>
-      <c r="F31" s="45">
-        <f t="shared" si="2"/>
-        <v>34389</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4142,28 +6610,28 @@
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="40">
+      <c r="B33" s="36">
         <f>SUM(B7,B19,B31)</f>
+        <v>390167</v>
+      </c>
+      <c r="C33" s="36">
+        <f>SUM(C7,C19,C31)</f>
+        <v>446541</v>
+      </c>
+      <c r="D33" s="36">
+        <f t="shared" ref="D33" si="3">SUM(D7,D19,D31)</f>
+        <v>-73950</v>
+      </c>
+      <c r="E33" s="36">
+        <f>SUM(E7,E19,E31)</f>
+        <v>101149</v>
+      </c>
+      <c r="F33" s="36">
+        <f>SUM(F7,F19,F31)</f>
         <v>-191319</v>
-      </c>
-      <c r="C33" s="40">
-        <f t="shared" ref="C33:F33" si="3">SUM(C7,C19,C31)</f>
-        <v>101149</v>
-      </c>
-      <c r="D33" s="40">
-        <f t="shared" si="3"/>
-        <v>-73950</v>
-      </c>
-      <c r="E33" s="40">
-        <f t="shared" si="3"/>
-        <v>446541</v>
-      </c>
-      <c r="F33" s="40">
-        <f t="shared" si="3"/>
-        <v>390167</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4171,19 +6639,19 @@
         <v>57</v>
       </c>
       <c r="B34" s="11">
-        <v>1341488</v>
+        <v>440499</v>
       </c>
       <c r="C34" s="11">
-        <v>1203611</v>
+        <v>837403</v>
       </c>
       <c r="D34" s="11">
         <v>1218279</v>
       </c>
       <c r="E34" s="11">
-        <v>837403</v>
+        <v>1203611</v>
       </c>
       <c r="F34" s="11">
-        <v>440499</v>
+        <v>1341488</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4191,19 +6659,19 @@
         <v>58</v>
       </c>
       <c r="B35" s="11">
-        <v>-29526</v>
+        <v>6794</v>
       </c>
       <c r="C35" s="11">
-        <v>36728</v>
+        <v>-65641</v>
       </c>
       <c r="D35" s="11">
         <v>59282</v>
       </c>
       <c r="E35" s="11">
-        <v>-65641</v>
+        <v>36728</v>
       </c>
       <c r="F35" s="11">
-        <v>6794</v>
+        <v>-29526</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -4211,44 +6679,44 @@
         <v>59</v>
       </c>
       <c r="B36" s="12">
-        <v>69</v>
+        <v>-57</v>
       </c>
       <c r="C36" s="12">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="D36" s="12">
         <v>0</v>
       </c>
       <c r="E36" s="12">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="F36" s="12">
-        <v>-57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="33">
         <f>SUM(B33:B36)</f>
+        <v>837403</v>
+      </c>
+      <c r="C37" s="33">
+        <f>SUM(C33:C36)</f>
+        <v>1218279</v>
+      </c>
+      <c r="D37" s="33">
+        <f t="shared" ref="D37" si="4">SUM(D33:D36)</f>
+        <v>1203611</v>
+      </c>
+      <c r="E37" s="33">
+        <f>SUM(E33:E36)</f>
+        <v>1341488</v>
+      </c>
+      <c r="F37" s="33">
+        <f>SUM(F33:F36)</f>
         <v>1120712</v>
-      </c>
-      <c r="C37" s="37">
-        <f t="shared" ref="C37:F37" si="4">SUM(C33:C36)</f>
-        <v>1341488</v>
-      </c>
-      <c r="D37" s="37">
-        <f t="shared" si="4"/>
-        <v>1203611</v>
-      </c>
-      <c r="E37" s="37">
-        <f t="shared" si="4"/>
-        <v>1218279</v>
-      </c>
-      <c r="F37" s="37">
-        <f t="shared" si="4"/>
-        <v>837403</v>
       </c>
     </row>
   </sheetData>
@@ -4256,20 +6724,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5E1897-464E-4698-93F5-3EE1A720698F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E97210-359B-40D0-B5CA-83EFA2834E49}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
